--- a/_01_Follow_up.xlsx
+++ b/_01_Follow_up.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\15_REPOS\00_BETAMI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E270769D-BC19-4D7A-ABB8-D5D325369FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A8B25D-00F2-44B2-9FDC-AC9D6CB811BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="122">
   <si>
     <t>01_ex-gwf-twri_b.ipynb</t>
   </si>
@@ -193,12 +193,6 @@
   </si>
   <si>
     <t>99_Ye_are_welcome</t>
-  </si>
-  <si>
-    <t>bin</t>
-  </si>
-  <si>
-    <t>README.md</t>
   </si>
   <si>
     <t>_00_Beta_Setup.txt</t>
@@ -403,7 +397,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +477,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF032F62"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -547,7 +556,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -632,6 +641,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1223,9 +1241,9 @@
               </a:solidFill>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="8100000" algn="tr" rotWithShape="0">
+              <a:outerShdw blurRad="76200" dir="13500000" sy="23000" kx="1200000" algn="br" rotWithShape="0">
                 <a:prstClr val="black">
-                  <a:alpha val="40000"/>
+                  <a:alpha val="20000"/>
                 </a:prstClr>
               </a:outerShdw>
             </a:effectLst>
@@ -1997,7 +2015,7 @@
   <dimension ref="A1:AZ163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2054,7 +2072,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
@@ -2092,20 +2110,20 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="14" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="14"/>
+      <c r="Q2" s="29"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -2121,7 +2139,7 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
@@ -2147,28 +2165,28 @@
     <row r="3" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="15"/>
+      <c r="G3" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="30"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14" t="s">
-        <v>116</v>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29" t="s">
+        <v>114</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -2185,7 +2203,7 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
@@ -2212,7 +2230,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="1"/>
@@ -2227,8 +2245,8 @@
       <c r="N4" s="1"/>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="14" t="s">
-        <v>117</v>
+      <c r="Q4" s="29" t="s">
+        <v>115</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -2245,7 +2263,7 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
@@ -2275,14 +2293,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>51</v>
       </c>
@@ -2291,23 +2311,23 @@
         <v>37</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L5" s="18">
         <v>5</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P5" s="22">
         <v>0</v>
       </c>
       <c r="Q5" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -2324,7 +2344,7 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
@@ -2354,7 +2374,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>1</v>
@@ -2371,23 +2391,23 @@
         <v>37.382352941176471</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L6" s="18">
         <v>6</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P6" s="22">
         <v>1</v>
       </c>
       <c r="Q6" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -2404,7 +2424,7 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
@@ -2434,14 +2454,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="H7" s="1" t="s">
         <v>53</v>
       </c>
@@ -2451,23 +2473,23 @@
         <v>37.764705882352942</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L7" s="18">
         <v>7</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P7" s="22">
         <v>2</v>
       </c>
       <c r="Q7" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -2484,7 +2506,7 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
@@ -2514,7 +2536,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>3</v>
@@ -2531,23 +2553,23 @@
         <v>38.147058823529413</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L8" s="18">
         <v>8</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P8" s="22">
         <v>3</v>
       </c>
       <c r="Q8" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2564,7 +2586,7 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
@@ -2594,7 +2616,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>4</v>
@@ -2611,23 +2633,23 @@
         <v>38.529411764705884</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L9" s="18">
         <v>9</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P9" s="22">
         <v>4</v>
       </c>
       <c r="Q9" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -2644,7 +2666,7 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
@@ -2674,7 +2696,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>5</v>
@@ -2682,32 +2704,30 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="17">
         <f t="shared" si="1"/>
         <v>38.911764705882355</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L10" s="18">
         <v>10</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P10" s="22">
         <v>5</v>
       </c>
       <c r="Q10" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -2724,7 +2744,7 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
@@ -2754,7 +2774,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>6</v>
@@ -2762,32 +2782,30 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="17">
         <f t="shared" si="1"/>
         <v>39.294117647058826</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L11" s="18">
         <v>11</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P11" s="22">
         <v>6</v>
       </c>
       <c r="Q11" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -2804,7 +2822,7 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
@@ -2834,7 +2852,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>7</v>
@@ -2843,7 +2861,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="17">
@@ -2851,23 +2869,23 @@
         <v>39.676470588235297</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L12" s="18">
         <v>12</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P12" s="22">
         <v>7</v>
       </c>
       <c r="Q12" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -2884,7 +2902,7 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
@@ -2914,7 +2932,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>8</v>
@@ -2923,7 +2941,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="17">
@@ -2931,23 +2949,23 @@
         <v>40.058823529411768</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L13" s="18">
         <v>13</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P13" s="22">
         <v>8</v>
       </c>
       <c r="Q13" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -2964,7 +2982,7 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
@@ -2994,7 +3012,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>9</v>
@@ -3002,10 +3020,10 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="17">
@@ -3013,23 +3031,23 @@
         <v>40.441176470588239</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L14" s="18">
         <v>14</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P14" s="22">
         <v>9</v>
       </c>
       <c r="Q14" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -3046,7 +3064,7 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
@@ -3076,7 +3094,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>10</v>
@@ -3084,10 +3102,10 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="17">
@@ -3095,23 +3113,23 @@
         <v>40.82352941176471</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L15" s="18">
         <v>15</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P15" s="22">
         <v>10</v>
       </c>
       <c r="Q15" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -3128,7 +3146,7 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
@@ -3158,7 +3176,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>11</v>
@@ -3173,23 +3191,23 @@
         <v>41.205882352941181</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L16" s="18">
         <v>16</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P16" s="22">
         <v>11</v>
       </c>
       <c r="Q16" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -3206,7 +3224,7 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
@@ -3236,7 +3254,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>12</v>
@@ -3251,23 +3269,23 @@
         <v>41.588235294117652</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L17" s="18">
         <v>17</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P17" s="22">
         <v>12</v>
       </c>
       <c r="Q17" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -3284,7 +3302,7 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
@@ -3314,7 +3332,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>13</v>
@@ -3329,23 +3347,23 @@
         <v>41.970588235294123</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L18" s="18">
         <v>18</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P18" s="22">
         <v>13</v>
       </c>
       <c r="Q18" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -3362,7 +3380,7 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
@@ -3392,7 +3410,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>14</v>
@@ -3407,23 +3425,23 @@
         <v>42.352941176470594</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L19" s="18">
         <v>19</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P19" s="22">
         <v>14</v>
       </c>
       <c r="Q19" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -3440,7 +3458,7 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
@@ -3470,30 +3488,30 @@
         <v>16</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="15"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="1"/>
       <c r="J20" s="17">
         <f t="shared" si="1"/>
         <v>42.735294117647065</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L20" s="18">
         <v>20</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="23"/>
@@ -3514,7 +3532,7 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
@@ -3544,7 +3562,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>16</v>
@@ -3559,13 +3577,13 @@
         <v>43.117647058823536</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L21" s="18">
         <v>21</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="23"/>
@@ -3586,7 +3604,7 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
@@ -3616,7 +3634,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>17</v>
@@ -3624,7 +3642,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H22" s="24" t="s">
         <v>36</v>
@@ -3635,13 +3653,13 @@
         <v>43.500000000000007</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L22" s="18">
         <v>22</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="23"/>
@@ -3662,7 +3680,7 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
@@ -3692,7 +3710,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>18</v>
@@ -3700,7 +3718,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H23" s="24" t="s">
         <v>37</v>
@@ -3711,13 +3729,13 @@
         <v>43.882352941176478</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L23" s="18">
         <v>23</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="23"/>
@@ -3738,7 +3756,7 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
@@ -3768,7 +3786,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>19</v>
@@ -3776,7 +3794,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H24" s="24" t="s">
         <v>38</v>
@@ -3787,13 +3805,13 @@
         <v>44.264705882352949</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L24" s="18">
         <v>24</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="23"/>
@@ -3814,7 +3832,7 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
@@ -3844,7 +3862,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>20</v>
@@ -3852,7 +3870,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H25" s="24" t="s">
         <v>39</v>
@@ -3863,13 +3881,13 @@
         <v>44.64705882352942</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L25" s="18">
         <v>25</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="23"/>
@@ -3890,7 +3908,7 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
@@ -3920,7 +3938,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>21</v>
@@ -3928,7 +3946,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H26" s="24" t="s">
         <v>40</v>
@@ -3939,13 +3957,13 @@
         <v>45.029411764705891</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L26" s="18">
         <v>26</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="23"/>
@@ -3966,7 +3984,7 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
@@ -3996,7 +4014,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>22</v>
@@ -4004,7 +4022,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>41</v>
@@ -4015,13 +4033,13 @@
         <v>45.411764705882362</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L27" s="18">
         <v>27</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="23"/>
@@ -4042,7 +4060,7 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
@@ -4072,7 +4090,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>23</v>
@@ -4080,7 +4098,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H28" s="24" t="s">
         <v>42</v>
@@ -4091,13 +4109,13 @@
         <v>45.794117647058833</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L28" s="18">
         <v>28</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="23"/>
@@ -4118,7 +4136,7 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
@@ -4148,7 +4166,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>24</v>
@@ -4156,7 +4174,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H29" s="24" t="s">
         <v>43</v>
@@ -4167,13 +4185,13 @@
         <v>46.176470588235304</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L29" s="18">
         <v>29</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="23"/>
@@ -4194,7 +4212,7 @@
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
@@ -4224,7 +4242,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>25</v>
@@ -4232,7 +4250,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H30" s="24" t="s">
         <v>44</v>
@@ -4243,13 +4261,13 @@
         <v>46.558823529411775</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L30" s="18">
         <v>30</v>
       </c>
       <c r="M30" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="23"/>
@@ -4270,7 +4288,7 @@
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
@@ -4300,7 +4318,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>26</v>
@@ -4317,13 +4335,13 @@
         <v>46.941176470588246</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L31" s="18">
         <v>31</v>
       </c>
       <c r="M31" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="23"/>
@@ -4344,7 +4362,7 @@
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
@@ -4374,7 +4392,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>27</v>
@@ -4391,13 +4409,13 @@
         <v>47.323529411764717</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L32" s="18">
         <v>32</v>
       </c>
       <c r="M32" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="23"/>
@@ -4418,7 +4436,7 @@
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
@@ -4448,7 +4466,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>28</v>
@@ -4465,13 +4483,13 @@
         <v>47.705882352941188</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L33" s="18">
         <v>33</v>
       </c>
       <c r="M33" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="23"/>
@@ -4492,7 +4510,7 @@
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
@@ -4522,7 +4540,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>29</v>
@@ -4539,13 +4557,13 @@
         <v>48.088235294117659</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L34" s="18">
         <v>34</v>
       </c>
       <c r="M34" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="23"/>
@@ -4566,7 +4584,7 @@
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
@@ -4596,7 +4614,7 @@
         <v>31</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>30</v>
@@ -4613,13 +4631,13 @@
         <v>48.47058823529413</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L35" s="18">
         <v>35</v>
       </c>
       <c r="M35" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="23"/>
@@ -4640,7 +4658,7 @@
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
@@ -4670,7 +4688,7 @@
         <v>32</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>31</v>
@@ -4687,13 +4705,13 @@
         <v>48.852941176470601</v>
       </c>
       <c r="K36" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L36" s="18">
         <v>36</v>
       </c>
       <c r="M36" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="23"/>
@@ -4714,7 +4732,7 @@
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
       <c r="AF36" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
@@ -4744,7 +4762,7 @@
         <v>33</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>32</v>
@@ -4759,13 +4777,13 @@
         <v>49.235294117647072</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L37" s="18">
         <v>37</v>
       </c>
       <c r="M37" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="23"/>
@@ -4786,7 +4804,7 @@
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
@@ -4816,7 +4834,7 @@
         <v>34</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>33</v>
@@ -4830,13 +4848,13 @@
         <v>50</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L38" s="18">
         <v>38</v>
       </c>
       <c r="M38" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="23"/>
@@ -4857,7 +4875,7 @@
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
       <c r="AF38" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
@@ -4887,7 +4905,7 @@
         <v>35</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>34</v>
@@ -4920,7 +4938,7 @@
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
       <c r="AF39" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
@@ -4950,7 +4968,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>35</v>
@@ -4960,11 +4978,11 @@
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="L40" s="15"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="L40" s="30"/>
       <c r="M40" s="15"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -4985,7 +5003,7 @@
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
       <c r="AF40" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
@@ -5015,7 +5033,7 @@
         <v>37</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D41" s="20" t="str">
         <f t="shared" ref="D41:D57" si="2">$L$3</f>
@@ -5024,13 +5042,13 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H41" s="26"/>
       <c r="I41" s="1"/>
       <c r="J41" s="24"/>
       <c r="K41" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
@@ -5053,7 +5071,7 @@
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
       <c r="AF41" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG41" s="1"/>
       <c r="AH41" s="1"/>
@@ -5083,7 +5101,7 @@
         <v>38</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D42" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5092,7 +5110,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H42" s="26"/>
       <c r="I42" s="1"/>
@@ -5119,7 +5137,7 @@
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
       <c r="AF42" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG42" s="1"/>
       <c r="AH42" s="1"/>
@@ -5149,7 +5167,7 @@
         <v>39</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D43" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5158,7 +5176,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H43" s="26"/>
       <c r="I43" s="1"/>
@@ -5185,7 +5203,7 @@
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
       <c r="AF43" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG43" s="1"/>
       <c r="AH43" s="1"/>
@@ -5215,7 +5233,7 @@
         <v>40</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D44" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5224,7 +5242,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H44" s="26"/>
       <c r="I44" s="1"/>
@@ -5251,7 +5269,7 @@
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
       <c r="AF44" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG44" s="1"/>
       <c r="AH44" s="1"/>
@@ -5281,7 +5299,7 @@
         <v>41</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D45" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5315,7 +5333,7 @@
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
       <c r="AF45" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
@@ -5345,7 +5363,7 @@
         <v>42</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D46" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5379,7 +5397,7 @@
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
       <c r="AF46" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG46" s="1"/>
       <c r="AH46" s="1"/>
@@ -5409,7 +5427,7 @@
         <v>43</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D47" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5443,7 +5461,7 @@
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
       <c r="AF47" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
@@ -5473,7 +5491,7 @@
         <v>44</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D48" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5507,7 +5525,7 @@
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
       <c r="AF48" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG48" s="1"/>
       <c r="AH48" s="1"/>
@@ -5537,7 +5555,7 @@
         <v>45</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D49" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5571,7 +5589,7 @@
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
       <c r="AF49" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG49" s="1"/>
       <c r="AH49" s="1"/>
@@ -5601,7 +5619,7 @@
         <v>46</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D50" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5635,7 +5653,7 @@
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
       <c r="AF50" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG50" s="1"/>
       <c r="AH50" s="1"/>
@@ -5665,7 +5683,7 @@
         <v>47</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D51" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5699,7 +5717,7 @@
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
       <c r="AF51" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
@@ -5729,7 +5747,7 @@
         <v>48</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D52" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5763,7 +5781,7 @@
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
       <c r="AF52" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG52" s="1"/>
       <c r="AH52" s="1"/>
@@ -5793,7 +5811,7 @@
         <v>49</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D53" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5827,7 +5845,7 @@
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
       <c r="AF53" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
@@ -5857,7 +5875,7 @@
         <v>50</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D54" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5891,7 +5909,7 @@
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
       <c r="AF54" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
@@ -5921,7 +5939,7 @@
         <v>51</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D55" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5955,7 +5973,7 @@
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
       <c r="AF55" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
@@ -5985,7 +6003,7 @@
         <v>52</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D56" s="20" t="str">
         <f t="shared" si="2"/>
@@ -6019,7 +6037,7 @@
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
       <c r="AF56" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
@@ -6049,7 +6067,7 @@
         <v>53</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D57" s="20" t="str">
         <f t="shared" si="2"/>
@@ -6083,7 +6101,7 @@
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
       <c r="AF57" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
@@ -6144,7 +6162,7 @@
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
       <c r="AF58" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG58" s="1"/>
       <c r="AH58" s="1"/>
@@ -6206,7 +6224,7 @@
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
       <c r="AF59" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG59" s="1"/>
       <c r="AH59" s="1"/>
@@ -6268,7 +6286,7 @@
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
       <c r="AF60" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG60" s="1"/>
       <c r="AH60" s="1"/>
@@ -6330,7 +6348,7 @@
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
       <c r="AF61" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG61" s="1"/>
       <c r="AH61" s="1"/>
@@ -6394,7 +6412,7 @@
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
       <c r="AF62" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
@@ -6456,7 +6474,7 @@
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
       <c r="AF63" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG63" s="1"/>
       <c r="AH63" s="1"/>
@@ -6518,7 +6536,7 @@
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
       <c r="AF64" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG64" s="1"/>
       <c r="AH64" s="1"/>
@@ -6580,7 +6598,7 @@
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
       <c r="AF65" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
@@ -6642,7 +6660,7 @@
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
       <c r="AF66" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
@@ -6704,7 +6722,7 @@
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
       <c r="AF67" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG67" s="1"/>
       <c r="AH67" s="1"/>
@@ -6766,7 +6784,7 @@
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
       <c r="AF68" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG68" s="1"/>
       <c r="AH68" s="1"/>
@@ -6828,7 +6846,7 @@
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
       <c r="AF69" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG69" s="1"/>
       <c r="AH69" s="1"/>
@@ -6890,7 +6908,7 @@
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
       <c r="AF70" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG70" s="1"/>
       <c r="AH70" s="1"/>
@@ -6952,7 +6970,7 @@
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
       <c r="AF71" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG71" s="1"/>
       <c r="AH71" s="1"/>
@@ -7014,7 +7032,7 @@
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
       <c r="AF72" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG72" s="1"/>
       <c r="AH72" s="1"/>
@@ -7076,7 +7094,7 @@
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
       <c r="AF73" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG73" s="1"/>
       <c r="AH73" s="1"/>
@@ -7138,7 +7156,7 @@
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
       <c r="AF74" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
@@ -7200,7 +7218,7 @@
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
       <c r="AF75" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
@@ -7262,7 +7280,7 @@
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
       <c r="AF76" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
@@ -7324,7 +7342,7 @@
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
       <c r="AF77" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
@@ -7386,7 +7404,7 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
       <c r="AF78" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
@@ -7448,7 +7466,7 @@
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
       <c r="AF79" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG79" s="1"/>
       <c r="AH79" s="1"/>
@@ -7510,7 +7528,7 @@
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
       <c r="AF80" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
@@ -7572,7 +7590,7 @@
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
       <c r="AF81" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG81" s="1"/>
       <c r="AH81" s="1"/>
@@ -7630,7 +7648,7 @@
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
       <c r="AF82" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG82" s="1"/>
       <c r="AH82" s="1"/>
@@ -7686,7 +7704,7 @@
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
       <c r="AF83" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG83" s="1"/>
       <c r="AH83" s="1"/>
@@ -7742,7 +7760,7 @@
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
       <c r="AF84" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG84" s="1"/>
       <c r="AH84" s="1"/>
@@ -7798,7 +7816,7 @@
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
       <c r="AF85" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
@@ -7854,7 +7872,7 @@
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
       <c r="AF86" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG86" s="1"/>
       <c r="AH86" s="1"/>
@@ -7910,7 +7928,7 @@
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
       <c r="AF87" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG87" s="1"/>
       <c r="AH87" s="1"/>
@@ -7966,7 +7984,7 @@
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
       <c r="AF88" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG88" s="1"/>
       <c r="AH88" s="1"/>
@@ -8022,7 +8040,7 @@
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
       <c r="AF89" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG89" s="1"/>
       <c r="AH89" s="1"/>
@@ -8078,7 +8096,7 @@
       <c r="AD90" s="1"/>
       <c r="AE90" s="1"/>
       <c r="AF90" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG90" s="1"/>
       <c r="AH90" s="1"/>
@@ -8134,7 +8152,7 @@
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
       <c r="AF91" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG91" s="1"/>
       <c r="AH91" s="1"/>
@@ -8190,7 +8208,7 @@
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
       <c r="AF92" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG92" s="1"/>
       <c r="AH92" s="1"/>
@@ -8246,7 +8264,7 @@
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
       <c r="AF93" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG93" s="1"/>
       <c r="AH93" s="1"/>
@@ -8302,7 +8320,7 @@
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
       <c r="AF94" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG94" s="1"/>
       <c r="AH94" s="1"/>
@@ -8358,7 +8376,7 @@
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
       <c r="AF95" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG95" s="1"/>
       <c r="AH95" s="1"/>
@@ -8414,7 +8432,7 @@
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
       <c r="AF96" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG96" s="1"/>
       <c r="AH96" s="1"/>
@@ -8470,7 +8488,7 @@
       <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
       <c r="AF97" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG97" s="1"/>
       <c r="AH97" s="1"/>
@@ -8526,7 +8544,7 @@
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
       <c r="AF98" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG98" s="1"/>
       <c r="AH98" s="1"/>
@@ -8582,7 +8600,7 @@
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
       <c r="AF99" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG99" s="1"/>
       <c r="AH99" s="1"/>
@@ -8638,7 +8656,7 @@
       <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
       <c r="AF100" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG100" s="1"/>
       <c r="AH100" s="1"/>
@@ -8694,7 +8712,7 @@
       <c r="AD101" s="1"/>
       <c r="AE101" s="1"/>
       <c r="AF101" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG101" s="1"/>
       <c r="AH101" s="1"/>
@@ -8750,7 +8768,7 @@
       <c r="AD102" s="1"/>
       <c r="AE102" s="1"/>
       <c r="AF102" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG102" s="1"/>
       <c r="AH102" s="1"/>
@@ -8806,7 +8824,7 @@
       <c r="AD103" s="1"/>
       <c r="AE103" s="1"/>
       <c r="AF103" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG103" s="1"/>
       <c r="AH103" s="1"/>
@@ -8862,7 +8880,7 @@
       <c r="AD104" s="1"/>
       <c r="AE104" s="1"/>
       <c r="AF104" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG104" s="1"/>
       <c r="AH104" s="1"/>
@@ -8918,7 +8936,7 @@
       <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
       <c r="AF105" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG105" s="1"/>
       <c r="AH105" s="1"/>
@@ -8974,7 +8992,7 @@
       <c r="AD106" s="1"/>
       <c r="AE106" s="1"/>
       <c r="AF106" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG106" s="1"/>
       <c r="AH106" s="1"/>
@@ -9030,7 +9048,7 @@
       <c r="AD107" s="1"/>
       <c r="AE107" s="1"/>
       <c r="AF107" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG107" s="1"/>
       <c r="AH107" s="1"/>
@@ -9086,7 +9104,7 @@
       <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
       <c r="AF108" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG108" s="1"/>
       <c r="AH108" s="1"/>
@@ -9142,7 +9160,7 @@
       <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
       <c r="AF109" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG109" s="1"/>
       <c r="AH109" s="1"/>
@@ -9198,7 +9216,7 @@
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
       <c r="AF110" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG110" s="1"/>
       <c r="AH110" s="1"/>
@@ -9254,7 +9272,7 @@
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
       <c r="AF111" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG111" s="1"/>
       <c r="AH111" s="1"/>
@@ -9310,7 +9328,7 @@
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
       <c r="AF112" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG112" s="1"/>
       <c r="AH112" s="1"/>
@@ -9366,7 +9384,7 @@
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
       <c r="AF113" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG113" s="1"/>
       <c r="AH113" s="1"/>
@@ -9422,7 +9440,7 @@
       <c r="AD114" s="1"/>
       <c r="AE114" s="1"/>
       <c r="AF114" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG114" s="1"/>
       <c r="AH114" s="1"/>
@@ -9478,7 +9496,7 @@
       <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
       <c r="AF115" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG115" s="1"/>
       <c r="AH115" s="1"/>
@@ -9534,7 +9552,7 @@
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
       <c r="AF116" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG116" s="1"/>
       <c r="AH116" s="1"/>
@@ -9590,7 +9608,7 @@
       <c r="AD117" s="1"/>
       <c r="AE117" s="1"/>
       <c r="AF117" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG117" s="1"/>
       <c r="AH117" s="1"/>
@@ -9646,7 +9664,7 @@
       <c r="AD118" s="1"/>
       <c r="AE118" s="1"/>
       <c r="AF118" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG118" s="1"/>
       <c r="AH118" s="1"/>
@@ -9702,7 +9720,7 @@
       <c r="AD119" s="1"/>
       <c r="AE119" s="1"/>
       <c r="AF119" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG119" s="1"/>
       <c r="AH119" s="1"/>
@@ -9758,7 +9776,7 @@
       <c r="AD120" s="1"/>
       <c r="AE120" s="1"/>
       <c r="AF120" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG120" s="1"/>
       <c r="AH120" s="1"/>
@@ -9814,7 +9832,7 @@
       <c r="AD121" s="1"/>
       <c r="AE121" s="1"/>
       <c r="AF121" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG121" s="1"/>
       <c r="AH121" s="1"/>
@@ -9870,7 +9888,7 @@
       <c r="AD122" s="1"/>
       <c r="AE122" s="1"/>
       <c r="AF122" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG122" s="1"/>
       <c r="AH122" s="1"/>
@@ -9926,7 +9944,7 @@
       <c r="AD123" s="1"/>
       <c r="AE123" s="1"/>
       <c r="AF123" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG123" s="1"/>
       <c r="AH123" s="1"/>
@@ -9982,7 +10000,7 @@
       <c r="AD124" s="1"/>
       <c r="AE124" s="1"/>
       <c r="AF124" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG124" s="1"/>
       <c r="AH124" s="1"/>
@@ -10038,7 +10056,7 @@
       <c r="AD125" s="1"/>
       <c r="AE125" s="1"/>
       <c r="AF125" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG125" s="1"/>
       <c r="AH125" s="1"/>
@@ -10094,7 +10112,7 @@
       <c r="AD126" s="1"/>
       <c r="AE126" s="1"/>
       <c r="AF126" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG126" s="1"/>
       <c r="AH126" s="1"/>
@@ -10150,7 +10168,7 @@
       <c r="AD127" s="1"/>
       <c r="AE127" s="1"/>
       <c r="AF127" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG127" s="1"/>
       <c r="AH127" s="1"/>
@@ -10206,7 +10224,7 @@
       <c r="AD128" s="1"/>
       <c r="AE128" s="1"/>
       <c r="AF128" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG128" s="1"/>
       <c r="AH128" s="1"/>
@@ -10262,7 +10280,7 @@
       <c r="AD129" s="1"/>
       <c r="AE129" s="1"/>
       <c r="AF129" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG129" s="1"/>
       <c r="AH129" s="1"/>
@@ -10318,7 +10336,7 @@
       <c r="AD130" s="1"/>
       <c r="AE130" s="1"/>
       <c r="AF130" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG130" s="1"/>
       <c r="AH130" s="1"/>
@@ -10374,7 +10392,7 @@
       <c r="AD131" s="1"/>
       <c r="AE131" s="1"/>
       <c r="AF131" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG131" s="1"/>
       <c r="AH131" s="1"/>
@@ -10430,7 +10448,7 @@
       <c r="AD132" s="1"/>
       <c r="AE132" s="1"/>
       <c r="AF132" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG132" s="1"/>
       <c r="AH132" s="1"/>
@@ -10486,7 +10504,7 @@
       <c r="AD133" s="1"/>
       <c r="AE133" s="1"/>
       <c r="AF133" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG133" s="1"/>
       <c r="AH133" s="1"/>
@@ -12123,6 +12141,54 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:C37">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C57">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G15">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:G30">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K38">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -12134,7 +12200,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41:C57">
+  <conditionalFormatting sqref="O5:O19">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -12146,7 +12212,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15">
+  <conditionalFormatting sqref="AF1:AF133">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -12158,43 +12236,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22:G30">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K38">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF1:AF133">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O19">
+  <conditionalFormatting sqref="G7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/_01_Follow_up.xlsx
+++ b/_01_Follow_up.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\15_REPOS\00_BETAMI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A8B25D-00F2-44B2-9FDC-AC9D6CB811BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B41B817-3C28-4265-8ED8-008B8F1332E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="129">
   <si>
     <t>01_ex-gwf-twri_b.ipynb</t>
   </si>
@@ -180,33 +180,6 @@
     <t>08c.ipynb</t>
   </si>
   <si>
-    <t>00_MF6</t>
-  </si>
-  <si>
-    <t>50____Pdfs</t>
-  </si>
-  <si>
-    <t>95_floPy</t>
-  </si>
-  <si>
-    <t>98_Random</t>
-  </si>
-  <si>
-    <t>99_Ye_are_welcome</t>
-  </si>
-  <si>
-    <t>_00_Beta_Setup.txt</t>
-  </si>
-  <si>
-    <t>_01_Follow_up.xlsx</t>
-  </si>
-  <si>
-    <t>_02_IN_MF6_.xlsx</t>
-  </si>
-  <si>
-    <t>_03_Summary.xlsx</t>
-  </si>
-  <si>
     <t>✓</t>
   </si>
   <si>
@@ -315,12 +288,6 @@
     <t>ix-gwt-mt3dms-p10_d_Iacopo.ipynb</t>
   </si>
   <si>
-    <t>00_BETAMI</t>
-  </si>
-  <si>
-    <t>www_37_46_files_MT3D_Zheng</t>
-  </si>
-  <si>
     <t>https://modflow6-examples.readthedocs.io/en/master/examples.html</t>
   </si>
   <si>
@@ -372,9 +339,6 @@
     <t>02_MT3D_Wisconsin-Madison</t>
   </si>
   <si>
-    <t xml:space="preserve">  _all</t>
-  </si>
-  <si>
     <t>https://flopy.readthedocs.io/en/stable/examples.html</t>
   </si>
   <si>
@@ -391,13 +355,70 @@
   </si>
   <si>
     <t>...</t>
+  </si>
+  <si>
+    <t>02_floPy</t>
+  </si>
+  <si>
+    <t>01_MF6</t>
+  </si>
+  <si>
+    <t>_37_46_files_MT3D_Zheng</t>
+  </si>
+  <si>
+    <t>03_Others</t>
+  </si>
+  <si>
+    <t>01_MT3D_El_Kadi</t>
+  </si>
+  <si>
+    <t>03_Langevin</t>
+  </si>
+  <si>
+    <t>04_Mnfienen</t>
+  </si>
+  <si>
+    <t>01_mfsetup_pleasant_lgr</t>
+  </si>
+  <si>
+    <t>02-Building-Post-Processing-MODFLOW6</t>
+  </si>
+  <si>
+    <t>03_Loading_and_visualizing_models_____pleasant</t>
+  </si>
+  <si>
+    <t>01_solver</t>
+  </si>
+  <si>
+    <t>02_build_base_watershed_b__BKP_</t>
+  </si>
+  <si>
+    <t>a_Multiscale heterogeneity__Madison</t>
+  </si>
+  <si>
+    <t>b_GSTools__</t>
+  </si>
+  <si>
+    <t>c1_pump_test_confined__b01_christianlangevin_</t>
+  </si>
+  <si>
+    <t>d1_Theis_Objective_Function_Prof. Gretchen Miller</t>
+  </si>
+  <si>
+    <t>d1_Ti</t>
+  </si>
+  <si>
+    <t>d2_Capillary Pressure_C_Fit_Obj_F_Madison</t>
+  </si>
+  <si>
+    <t>d2_Cb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,14 +443,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -492,8 +505,23 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,18 +537,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,6 +558,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -556,15 +578,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -579,77 +598,71 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -677,62 +690,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1288123</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>25977</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>3379139</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>98512</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE06E48-3293-748B-53B2-B70A455239FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6301737" y="1428750"/>
-          <a:ext cx="2091016" cy="851853"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="76200" dir="13500000" sy="23000" kx="1200000" algn="br" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="20000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -781,7 +738,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -822,7 +779,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -863,7 +820,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -904,7 +861,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -945,7 +902,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -977,16 +934,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>147205</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>150336</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>72405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2455901</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2334671</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>61194</xdr:rowOff>
+      <xdr:rowOff>139126</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1002,13 +959,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:srcRect t="1" b="-585"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9273887" y="4046927"/>
+          <a:off x="5039589" y="4020950"/>
           <a:ext cx="2308696" cy="1781221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1033,15 +990,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>60615</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>63347</xdr:rowOff>
+      <xdr:colOff>597477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>153190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>2502479</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>84415</xdr:rowOff>
+      <xdr:colOff>2641023</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>75756</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1058,8 +1015,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13014615" y="3076711"/>
-          <a:ext cx="2441864" cy="2514886"/>
+          <a:off x="13092545" y="828599"/>
+          <a:ext cx="2043546" cy="2104657"/>
           <a:chOff x="6745432" y="1575955"/>
           <a:chExt cx="2822863" cy="2907278"/>
         </a:xfrm>
@@ -1078,7 +1035,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1119,7 +1076,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1181,7 +1138,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -1222,7 +1179,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -1263,7 +1220,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -1305,7 +1262,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1325,15 +1282,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>995794</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>147204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>3184741</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>142436</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1351,7 +1308,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6009408" y="3160568"/>
+          <a:off x="9213271" y="510886"/>
           <a:ext cx="2188947" cy="2956641"/>
           <a:chOff x="-6750746" y="2322569"/>
           <a:chExt cx="8398617" cy="11344132"/>
@@ -1371,7 +1328,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1412,7 +1369,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1453,7 +1410,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1494,7 +1451,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1535,7 +1492,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1576,7 +1533,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1620,7 +1577,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1661,7 +1618,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1691,59 +1648,120 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2086841</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>30252</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>60614</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>3371041</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>69272</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3424517</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>33625</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="Group 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C83A7D16-E071-5EE4-C64D-4ADC6AC8B716}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F205FBA0-C5BE-242F-607B-CD4E1153792E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
-        <a:srcRect l="21303"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7100455" y="341979"/>
-          <a:ext cx="1284200" cy="974202"/>
+          <a:off x="8061614" y="4398818"/>
+          <a:ext cx="3580380" cy="986125"/>
+          <a:chOff x="5004955" y="6650182"/>
+          <a:chExt cx="3580380" cy="986125"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="8100000" algn="tr" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D3F06A2-6516-4259-8C06-6DFE76A3E28C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6494319" y="6784454"/>
+            <a:ext cx="2091016" cy="851853"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="76200" dir="13500000" sy="23000" kx="1200000" algn="br" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="Picture 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5280136-96B8-4F54-80A5-D97E29A975F7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+          <a:srcRect l="21303"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5004955" y="6650182"/>
+            <a:ext cx="1284200" cy="974202"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="8100000" algn="tr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2012,26 +2030,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ163"/>
+  <dimension ref="A1:AZ164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="4" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="33" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="3.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="51.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" style="2" customWidth="1"/>
-    <col min="10" max="11" width="3.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="3.5703125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="38.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="3.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="38.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="51.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" style="2" customWidth="1"/>
     <col min="15" max="16" width="2.85546875" style="2" customWidth="1"/>
     <col min="17" max="17" width="41.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="2"/>
@@ -2040,16 +2058,16 @@
     <row r="1" spans="1:52" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="7"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="I1" s="6"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="7"/>
+      <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -2071,8 +2089,8 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
-      <c r="AF1" s="8" t="s">
-        <v>60</v>
+      <c r="AF1" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
@@ -2098,10 +2116,10 @@
     <row r="2" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>33</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <f>MAX(D5:D81)</f>
         <v>70</v>
       </c>
@@ -2109,21 +2127,15 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" s="29"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -2138,8 +2150,8 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
-      <c r="AF2" s="8" t="s">
-        <v>60</v>
+      <c r="AF2" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
@@ -2165,29 +2177,29 @@
     <row r="3" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="29"/>
+      <c r="C3" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="24"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29" t="s">
-        <v>114</v>
-      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" s="25"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -2202,8 +2214,8 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
-      <c r="AF3" s="8" t="s">
-        <v>60</v>
+      <c r="AF3" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
@@ -2229,25 +2241,27 @@
     <row r="4" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="C4" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="1"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="25"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="29" t="s">
-        <v>115</v>
-      </c>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q4" s="24"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -2262,8 +2276,8 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-      <c r="AF4" s="8" t="s">
-        <v>60</v>
+      <c r="AF4" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
@@ -2287,48 +2301,36 @@
       <c r="AZ4" s="1"/>
     </row>
     <row r="5" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9">
         <f>B4+1</f>
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="19">
-        <v>37</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" s="18">
-        <v>5</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>62</v>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="N5" s="1"/>
-      <c r="O5" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="P5" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="23" t="s">
-        <v>99</v>
-      </c>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="24"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -2343,8 +2345,8 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
-      <c r="AF5" s="8" t="s">
-        <v>60</v>
+      <c r="AF5" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
@@ -2368,46 +2370,47 @@
       <c r="AZ5" s="1"/>
     </row>
     <row r="6" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9">
         <f t="shared" ref="B6:B69" si="0">B5+1</f>
         <v>2</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="17">
-        <f>J5+($J$38-$J$5)/COUNT($L$5:$L$38)</f>
-        <v>37.382352941176471</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="18">
-        <v>6</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>63</v>
+      <c r="G6" s="27">
+        <v>37</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="14">
+        <v>5</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="23" t="s">
-        <v>100</v>
+      <c r="O6" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -2423,8 +2426,8 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="8" t="s">
-        <v>60</v>
+      <c r="AF6" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
@@ -2448,48 +2451,48 @@
       <c r="AZ6" s="1"/>
     </row>
     <row r="7" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="17">
-        <f t="shared" ref="J7:J37" si="1">J6+($J$38-$J$5)/COUNT($L$5:$L$38)</f>
-        <v>37.764705882352942</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="18">
-        <v>7</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>64</v>
+      <c r="G7" s="13">
+        <f>G6+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>37.264705882352942</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="14">
+        <v>6</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="23" t="s">
-        <v>101</v>
+      <c r="O7" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -2505,8 +2508,8 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
-      <c r="AF7" s="8" t="s">
-        <v>60</v>
+      <c r="AF7" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
@@ -2530,46 +2533,48 @@
       <c r="AZ7" s="1"/>
     </row>
     <row r="8" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="17">
-        <f t="shared" si="1"/>
-        <v>38.147058823529413</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="18">
-        <v>8</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>65</v>
+      <c r="G8" s="13">
+        <f>G7+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>37.529411764705884</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="14">
+        <v>7</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="P8" s="22">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="23" t="s">
-        <v>102</v>
+      <c r="O8" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2585,8 +2590,8 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
-      <c r="AF8" s="8" t="s">
-        <v>60</v>
+      <c r="AF8" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
@@ -2610,46 +2615,48 @@
       <c r="AZ8" s="1"/>
     </row>
     <row r="9" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="17">
-        <f t="shared" si="1"/>
-        <v>38.529411764705884</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L9" s="18">
-        <v>9</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>66</v>
+      <c r="G9" s="13">
+        <f>G8+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>37.794117647058826</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="14">
+        <v>8</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="P9" s="22">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="23" t="s">
-        <v>103</v>
+      <c r="O9" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -2665,8 +2672,8 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
-      <c r="AF9" s="8" t="s">
-        <v>60</v>
+      <c r="AF9" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
@@ -2690,44 +2697,48 @@
       <c r="AZ9" s="1"/>
     </row>
     <row r="10" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="17">
-        <f t="shared" si="1"/>
-        <v>38.911764705882355</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="18">
-        <v>10</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>67</v>
+      <c r="G10" s="13">
+        <f>G9+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>38.058823529411768</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="14">
+        <v>9</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="P10" s="22">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="23" t="s">
-        <v>104</v>
+      <c r="O10" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="17">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -2743,8 +2754,8 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
-      <c r="AF10" s="8" t="s">
-        <v>60</v>
+      <c r="AF10" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
@@ -2768,44 +2779,48 @@
       <c r="AZ10" s="1"/>
     </row>
     <row r="11" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="17">
-        <f t="shared" si="1"/>
-        <v>39.294117647058826</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" s="18">
-        <v>11</v>
-      </c>
-      <c r="M11" s="21" t="s">
-        <v>68</v>
+      <c r="G11" s="13">
+        <f>G10+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>38.32352941176471</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="14">
+        <v>10</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="P11" s="22">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="23" t="s">
-        <v>105</v>
+      <c r="O11" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="18" t="s">
+        <v>93</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -2821,8 +2836,8 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
-      <c r="AF11" s="8" t="s">
-        <v>60</v>
+      <c r="AF11" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
@@ -2846,46 +2861,48 @@
       <c r="AZ11" s="1"/>
     </row>
     <row r="12" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="17">
-        <f t="shared" si="1"/>
-        <v>39.676470588235297</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" s="18">
-        <v>12</v>
-      </c>
-      <c r="M12" s="21" t="s">
-        <v>69</v>
+      <c r="G12" s="13">
+        <f>G11+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>38.588235294117652</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="14">
+        <v>11</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="P12" s="22">
-        <v>7</v>
-      </c>
-      <c r="Q12" s="23" t="s">
-        <v>106</v>
+      <c r="O12" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" s="17">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="18" t="s">
+        <v>94</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -2901,8 +2918,8 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
-      <c r="AF12" s="8" t="s">
-        <v>60</v>
+      <c r="AF12" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
@@ -2926,46 +2943,48 @@
       <c r="AZ12" s="1"/>
     </row>
     <row r="13" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="17">
-        <f t="shared" si="1"/>
-        <v>40.058823529411768</v>
-      </c>
-      <c r="K13" s="17" t="s">
+      <c r="G13" s="13">
+        <f>G12+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>38.852941176470594</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="14">
+        <v>12</v>
+      </c>
+      <c r="J13" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="18">
-        <v>13</v>
-      </c>
-      <c r="M13" s="21" t="s">
-        <v>70</v>
+      <c r="K13" s="1"/>
+      <c r="L13" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="P13" s="22">
-        <v>8</v>
-      </c>
-      <c r="Q13" s="23" t="s">
-        <v>107</v>
+      <c r="O13" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="17">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -2981,8 +3000,8 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
-      <c r="AF13" s="8" t="s">
-        <v>60</v>
+      <c r="AF13" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
@@ -3006,48 +3025,46 @@
       <c r="AZ13" s="1"/>
     </row>
     <row r="14" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="17">
-        <f t="shared" si="1"/>
-        <v>40.441176470588239</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="18">
-        <v>14</v>
-      </c>
-      <c r="M14" s="21" t="s">
-        <v>71</v>
+      <c r="G14" s="13">
+        <f>G13+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>39.117647058823536</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="14">
+        <v>13</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="P14" s="22">
-        <v>9</v>
-      </c>
-      <c r="Q14" s="23" t="s">
-        <v>108</v>
+      <c r="O14" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="17">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -3063,8 +3080,8 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
-      <c r="AF14" s="8" t="s">
-        <v>60</v>
+      <c r="AF14" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
@@ -3088,48 +3105,46 @@
       <c r="AZ14" s="1"/>
     </row>
     <row r="15" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="17" t="s">
-        <v>60</v>
+      <c r="G15" s="13">
+        <f>G14+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>39.382352941176478</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="17">
-        <f t="shared" si="1"/>
-        <v>40.82352941176471</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="18">
-        <v>15</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>72</v>
+        <v>51</v>
+      </c>
+      <c r="I15" s="14">
+        <v>14</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="P15" s="22">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="23" t="s">
-        <v>109</v>
+      <c r="O15" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="17">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -3145,8 +3160,8 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
-      <c r="AF15" s="8" t="s">
-        <v>60</v>
+      <c r="AF15" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
@@ -3170,44 +3185,46 @@
       <c r="AZ15" s="1"/>
     </row>
     <row r="16" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="17">
-        <f t="shared" si="1"/>
-        <v>41.205882352941181</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" s="18">
-        <v>16</v>
-      </c>
-      <c r="M16" s="21" t="s">
-        <v>73</v>
+      <c r="G16" s="13">
+        <f>G15+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>39.64705882352942</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="14">
+        <v>15</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" s="22">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="23" t="s">
-        <v>110</v>
+      <c r="O16" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="17">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -3223,8 +3240,8 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
-      <c r="AF16" s="8" t="s">
-        <v>60</v>
+      <c r="AF16" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
@@ -3248,44 +3265,46 @@
       <c r="AZ16" s="1"/>
     </row>
     <row r="17" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="17">
-        <f t="shared" si="1"/>
-        <v>41.588235294117652</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" s="18">
-        <v>17</v>
-      </c>
-      <c r="M17" s="21" t="s">
-        <v>74</v>
+      <c r="G17" s="13">
+        <f>G16+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>39.911764705882362</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="14">
+        <v>16</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="P17" s="22">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="23" t="s">
-        <v>111</v>
+      <c r="O17" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="17">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -3301,8 +3320,8 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
-      <c r="AF17" s="8" t="s">
-        <v>60</v>
+      <c r="AF17" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
@@ -3326,44 +3345,46 @@
       <c r="AZ17" s="1"/>
     </row>
     <row r="18" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="17">
-        <f t="shared" si="1"/>
-        <v>41.970588235294123</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L18" s="18">
-        <v>18</v>
-      </c>
-      <c r="M18" s="21" t="s">
-        <v>75</v>
+      <c r="G18" s="13">
+        <f>G17+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>40.176470588235304</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="14">
+        <v>17</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="P18" s="22">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="23" t="s">
-        <v>112</v>
+      <c r="O18" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18" s="17">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -3379,8 +3400,8 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
-      <c r="AF18" s="8" t="s">
-        <v>60</v>
+      <c r="AF18" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
@@ -3404,44 +3425,46 @@
       <c r="AZ18" s="1"/>
     </row>
     <row r="19" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="17">
-        <f t="shared" si="1"/>
-        <v>42.352941176470594</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L19" s="18">
-        <v>19</v>
-      </c>
-      <c r="M19" s="21" t="s">
-        <v>76</v>
+      <c r="G19" s="13">
+        <f>G18+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>40.441176470588246</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="14">
+        <v>18</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="P19" s="22">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="23" t="s">
-        <v>113</v>
+      <c r="O19" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" s="17">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="18" t="s">
+        <v>101</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -3457,8 +3480,8 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
-      <c r="AF19" s="8" t="s">
-        <v>60</v>
+      <c r="AF19" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
@@ -3482,41 +3505,45 @@
       <c r="AZ19" s="1"/>
     </row>
     <row r="20" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="17">
-        <f t="shared" si="1"/>
-        <v>42.735294117647065</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L20" s="18">
-        <v>20</v>
-      </c>
-      <c r="M20" s="21" t="s">
-        <v>77</v>
-      </c>
+      <c r="G20" s="13">
+        <f>G19+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>40.705882352941188</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="14">
+        <v>19</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
+      <c r="O20" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" s="17">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="18" t="s">
+        <v>102</v>
+      </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -3531,8 +3558,8 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
-      <c r="AF20" s="8" t="s">
-        <v>60</v>
+      <c r="AF20" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
@@ -3556,39 +3583,41 @@
       <c r="AZ20" s="1"/>
     </row>
     <row r="21" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="17">
-        <f t="shared" si="1"/>
-        <v>43.117647058823536</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L21" s="18">
-        <v>21</v>
-      </c>
-      <c r="M21" s="21" t="s">
-        <v>78</v>
-      </c>
+      <c r="G21" s="13">
+        <f>G20+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>40.97058823529413</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="14">
+        <v>20</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q21" s="24"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -3603,8 +3632,8 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
-      <c r="AF21" s="8" t="s">
-        <v>60</v>
+      <c r="AF21" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
@@ -3628,43 +3657,45 @@
       <c r="AZ21" s="1"/>
     </row>
     <row r="22" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="17">
-        <f t="shared" si="1"/>
-        <v>43.500000000000007</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L22" s="18">
-        <v>22</v>
-      </c>
-      <c r="M22" s="21" t="s">
-        <v>79</v>
-      </c>
+      <c r="G22" s="13">
+        <f>G21+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>41.235294117647072</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="14">
+        <v>21</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
+      <c r="O22" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" s="17">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -3679,8 +3710,8 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
-      <c r="AF22" s="8" t="s">
-        <v>60</v>
+      <c r="AF22" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
@@ -3704,43 +3735,45 @@
       <c r="AZ22" s="1"/>
     </row>
     <row r="23" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="17">
-        <f t="shared" si="1"/>
-        <v>43.882352941176478</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L23" s="18">
-        <v>23</v>
-      </c>
-      <c r="M23" s="21" t="s">
-        <v>80</v>
-      </c>
+      <c r="G23" s="13">
+        <f>G22+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>41.500000000000014</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="14">
+        <v>22</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
+      <c r="O23" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" s="17">
+        <v>16</v>
+      </c>
+      <c r="Q23" s="18" t="s">
+        <v>121</v>
+      </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -3755,8 +3788,8 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
-      <c r="AF23" s="8" t="s">
-        <v>60</v>
+      <c r="AF23" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
@@ -3780,43 +3813,43 @@
       <c r="AZ23" s="1"/>
     </row>
     <row r="24" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="17">
-        <f t="shared" si="1"/>
-        <v>44.264705882352949</v>
-      </c>
-      <c r="K24" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L24" s="18">
-        <v>24</v>
-      </c>
-      <c r="M24" s="21" t="s">
-        <v>81</v>
-      </c>
+      <c r="G24" s="13">
+        <f>G23+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>41.764705882352956</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="14">
+        <v>23</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="M24" s="21"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q24" s="24"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -3831,8 +3864,8 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
-      <c r="AF24" s="8" t="s">
-        <v>60</v>
+      <c r="AF24" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
@@ -3856,43 +3889,47 @@
       <c r="AZ24" s="1"/>
     </row>
     <row r="25" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="C25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="17">
-        <f t="shared" si="1"/>
-        <v>44.64705882352942</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L25" s="18">
-        <v>25</v>
-      </c>
-      <c r="M25" s="21" t="s">
-        <v>82</v>
-      </c>
+      <c r="G25" s="13">
+        <f>G24+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>42.029411764705898</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="14">
+        <v>24</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="M25" s="21"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
+      <c r="O25" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" s="17">
+        <v>17</v>
+      </c>
+      <c r="Q25" s="18" t="s">
+        <v>117</v>
+      </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -3907,8 +3944,8 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
-      <c r="AF25" s="8" t="s">
-        <v>60</v>
+      <c r="AF25" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
@@ -3932,43 +3969,47 @@
       <c r="AZ25" s="1"/>
     </row>
     <row r="26" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="C26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="17">
-        <f t="shared" si="1"/>
-        <v>45.029411764705891</v>
-      </c>
-      <c r="K26" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L26" s="18">
-        <v>26</v>
-      </c>
-      <c r="M26" s="21" t="s">
-        <v>83</v>
-      </c>
+      <c r="G26" s="13">
+        <f>G25+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>42.29411764705884</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="14">
+        <v>25</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="M26" s="21"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
+      <c r="O26" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" s="17">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="18" t="s">
+        <v>118</v>
+      </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -3983,8 +4024,8 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
-      <c r="AF26" s="8" t="s">
-        <v>60</v>
+      <c r="AF26" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
@@ -4008,43 +4049,47 @@
       <c r="AZ26" s="1"/>
     </row>
     <row r="27" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="C27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="17">
-        <f t="shared" si="1"/>
-        <v>45.411764705882362</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L27" s="18">
-        <v>27</v>
-      </c>
-      <c r="M27" s="21" t="s">
-        <v>84</v>
-      </c>
+      <c r="G27" s="13">
+        <f>G26+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>42.558823529411782</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="14">
+        <v>26</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="M27" s="21"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
+      <c r="O27" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P27" s="17">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="18" t="s">
+        <v>119</v>
+      </c>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -4059,8 +4104,8 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
-      <c r="AF27" s="8" t="s">
-        <v>60</v>
+      <c r="AF27" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
@@ -4084,43 +4129,39 @@
       <c r="AZ27" s="1"/>
     </row>
     <row r="28" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="C28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="17">
-        <f t="shared" si="1"/>
-        <v>45.794117647058833</v>
-      </c>
-      <c r="K28" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L28" s="18">
-        <v>28</v>
-      </c>
-      <c r="M28" s="21" t="s">
-        <v>85</v>
-      </c>
+      <c r="G28" s="13">
+        <f>G27+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>42.823529411764724</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="14">
+        <v>27</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -4135,8 +4176,8 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
-      <c r="AF28" s="8" t="s">
-        <v>60</v>
+      <c r="AF28" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
@@ -4160,43 +4201,45 @@
       <c r="AZ28" s="1"/>
     </row>
     <row r="29" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="C29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="17">
-        <f t="shared" si="1"/>
-        <v>46.176470588235304</v>
-      </c>
-      <c r="K29" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L29" s="18">
-        <v>29</v>
-      </c>
-      <c r="M29" s="21" t="s">
-        <v>86</v>
-      </c>
+      <c r="G29" s="13">
+        <f>G28+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>43.088235294117666</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="14">
+        <v>28</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
+      <c r="O29" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P29" s="17">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="18" t="s">
+        <v>122</v>
+      </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -4211,8 +4254,8 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
-      <c r="AF29" s="8" t="s">
-        <v>60</v>
+      <c r="AF29" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
@@ -4236,43 +4279,46 @@
       <c r="AZ29" s="1"/>
     </row>
     <row r="30" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="17">
-        <f t="shared" si="1"/>
-        <v>46.558823529411775</v>
-      </c>
-      <c r="K30" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L30" s="18">
-        <v>30</v>
-      </c>
-      <c r="M30" s="21" t="s">
-        <v>87</v>
-      </c>
+      <c r="G30" s="13">
+        <f>G29+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>43.352941176470608</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="14">
+        <v>29</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
+      <c r="O30" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P30" s="17">
+        <f>P29+1</f>
+        <v>21</v>
+      </c>
+      <c r="Q30" s="18" t="s">
+        <v>123</v>
+      </c>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -4287,8 +4333,8 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
-      <c r="AF30" s="8" t="s">
-        <v>60</v>
+      <c r="AF30" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
@@ -4312,41 +4358,46 @@
       <c r="AZ30" s="1"/>
     </row>
     <row r="31" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="C31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="17">
-        <f t="shared" si="1"/>
-        <v>46.941176470588246</v>
-      </c>
-      <c r="K31" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L31" s="18">
-        <v>31</v>
-      </c>
-      <c r="M31" s="21" t="s">
-        <v>88</v>
-      </c>
+      <c r="G31" s="13">
+        <f>G30+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>43.61764705882355</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="14">
+        <v>30</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
+      <c r="O31" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P31" s="17">
+        <f t="shared" ref="P31:P35" si="1">P30+1</f>
+        <v>22</v>
+      </c>
+      <c r="Q31" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -4361,8 +4412,8 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
-      <c r="AF31" s="8" t="s">
-        <v>60</v>
+      <c r="AF31" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
@@ -4386,41 +4437,46 @@
       <c r="AZ31" s="1"/>
     </row>
     <row r="32" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="17">
+      <c r="G32" s="13">
+        <f>G31+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>43.882352941176492</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="14">
+        <v>31</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P32" s="17">
         <f t="shared" si="1"/>
-        <v>47.323529411764717</v>
-      </c>
-      <c r="K32" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L32" s="18">
-        <v>32</v>
-      </c>
-      <c r="M32" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="N32" s="1"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="Q32" s="18" t="s">
+        <v>125</v>
+      </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -4435,8 +4491,8 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
-      <c r="AF32" s="8" t="s">
-        <v>60</v>
+      <c r="AF32" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
@@ -4460,41 +4516,46 @@
       <c r="AZ32" s="1"/>
     </row>
     <row r="33" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="C33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="17">
+      <c r="G33" s="13">
+        <f>G32+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>44.147058823529434</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="14">
+        <v>32</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P33" s="17">
         <f t="shared" si="1"/>
-        <v>47.705882352941188</v>
-      </c>
-      <c r="K33" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L33" s="18">
-        <v>33</v>
-      </c>
-      <c r="M33" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="N33" s="1"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="Q33" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -4509,8 +4570,8 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
-      <c r="AF33" s="8" t="s">
-        <v>60</v>
+      <c r="AF33" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
@@ -4534,41 +4595,46 @@
       <c r="AZ33" s="1"/>
     </row>
     <row r="34" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="C34" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="17">
+      <c r="G34" s="13">
+        <f>G33+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>44.411764705882376</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34" s="14">
+        <v>33</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P34" s="17">
         <f t="shared" si="1"/>
-        <v>48.088235294117659</v>
-      </c>
-      <c r="K34" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L34" s="18">
-        <v>34</v>
-      </c>
-      <c r="M34" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="N34" s="1"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
+        <v>25</v>
+      </c>
+      <c r="Q34" s="18" t="s">
+        <v>127</v>
+      </c>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -4583,8 +4649,8 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
-      <c r="AF34" s="8" t="s">
-        <v>60</v>
+      <c r="AF34" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
@@ -4608,41 +4674,46 @@
       <c r="AZ34" s="1"/>
     </row>
     <row r="35" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="C35" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="17">
+      <c r="G35" s="13">
+        <f>G34+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>44.676470588235318</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" s="14">
+        <v>34</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P35" s="17">
         <f t="shared" si="1"/>
-        <v>48.47058823529413</v>
-      </c>
-      <c r="K35" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L35" s="18">
-        <v>35</v>
-      </c>
-      <c r="M35" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="N35" s="1"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
+        <v>26</v>
+      </c>
+      <c r="Q35" s="18" t="s">
+        <v>128</v>
+      </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -4657,8 +4728,8 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
-      <c r="AF35" s="8" t="s">
-        <v>60</v>
+      <c r="AF35" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
@@ -4682,41 +4753,39 @@
       <c r="AZ35" s="1"/>
     </row>
     <row r="36" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="C36" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="17">
-        <f t="shared" si="1"/>
-        <v>48.852941176470601</v>
-      </c>
-      <c r="K36" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L36" s="18">
-        <v>36</v>
-      </c>
-      <c r="M36" s="21" t="s">
-        <v>93</v>
-      </c>
+      <c r="G36" s="13">
+        <f>G35+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>44.94117647058826</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" s="14">
+        <v>35</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -4731,8 +4800,8 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
-      <c r="AF36" s="8" t="s">
-        <v>60</v>
+      <c r="AF36" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
@@ -4756,39 +4825,39 @@
       <c r="AZ36" s="1"/>
     </row>
     <row r="37" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="4" t="s">
+      <c r="C37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="17">
-        <f t="shared" si="1"/>
-        <v>49.235294117647072</v>
-      </c>
-      <c r="K37" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L37" s="18">
-        <v>37</v>
-      </c>
-      <c r="M37" s="21" t="s">
-        <v>94</v>
-      </c>
+      <c r="G37" s="13">
+        <f>G36+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>45.205882352941202</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I37" s="14">
+        <v>36</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -4803,8 +4872,8 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
-      <c r="AF37" s="8" t="s">
-        <v>60</v>
+      <c r="AF37" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
@@ -4828,38 +4897,39 @@
       <c r="AZ37" s="1"/>
     </row>
     <row r="38" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="6" t="s">
+      <c r="C38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="19">
-        <v>50</v>
-      </c>
-      <c r="K38" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L38" s="18">
-        <v>38</v>
-      </c>
-      <c r="M38" s="21" t="s">
-        <v>95</v>
-      </c>
+      <c r="G38" s="13">
+        <f>G37+($G$39-$G$6)/COUNT($I$6:$I$39)</f>
+        <v>45.470588235294144</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="14">
+        <v>37</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -4874,8 +4944,8 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
-      <c r="AF38" s="8" t="s">
-        <v>60</v>
+      <c r="AF38" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
@@ -4899,25 +4969,33 @@
       <c r="AZ38" s="1"/>
     </row>
     <row r="39" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="C39" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="G39" s="27">
+        <v>46</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" s="14">
+        <v>38</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>86</v>
+      </c>
       <c r="K39" s="1"/>
-      <c r="L39" s="7"/>
+      <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -4937,8 +5015,8 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
-      <c r="AF39" s="8" t="s">
-        <v>60</v>
+      <c r="AF39" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
@@ -4962,28 +5040,26 @@
       <c r="AZ39" s="1"/>
     </row>
     <row r="40" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="C40" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="L40" s="30"/>
-      <c r="M40" s="15"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -5002,8 +5078,8 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
-      <c r="AF40" s="8" t="s">
-        <v>60</v>
+      <c r="AF40" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
@@ -5027,31 +5103,29 @@
       <c r="AZ40" s="1"/>
     </row>
     <row r="41" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" s="20" t="str">
-        <f t="shared" ref="D41:D57" si="2">$L$3</f>
-        <v>www_37_46_files_MT3D_Zheng</v>
+      <c r="C41" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="15" t="str">
+        <f>$I$4</f>
+        <v>_37_46_files_MT3D_Zheng</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="H41" s="26"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I41" s="25"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -5070,8 +5144,8 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
-      <c r="AF41" s="8" t="s">
-        <v>60</v>
+      <c r="AF41" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG41" s="1"/>
       <c r="AH41" s="1"/>
@@ -5095,28 +5169,28 @@
       <c r="AZ41" s="1"/>
     </row>
     <row r="42" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>www_37_46_files_MT3D_Zheng</v>
+      <c r="C42" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="15" t="str">
+        <f>$I$4</f>
+        <v>_37_46_files_MT3D_Zheng</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="H42" s="26"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="7"/>
+      <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -5136,8 +5210,8 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
-      <c r="AF42" s="8" t="s">
-        <v>60</v>
+      <c r="AF42" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG42" s="1"/>
       <c r="AH42" s="1"/>
@@ -5161,28 +5235,26 @@
       <c r="AZ42" s="1"/>
     </row>
     <row r="43" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>www_37_46_files_MT3D_Zheng</v>
+      <c r="C43" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="15" t="str">
+        <f>$I$4</f>
+        <v>_37_46_files_MT3D_Zheng</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="H43" s="26"/>
-      <c r="I43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="6"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="7"/>
+      <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -5202,8 +5274,8 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
-      <c r="AF43" s="8" t="s">
-        <v>60</v>
+      <c r="AF43" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG43" s="1"/>
       <c r="AH43" s="1"/>
@@ -5227,28 +5299,26 @@
       <c r="AZ43" s="1"/>
     </row>
     <row r="44" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>www_37_46_files_MT3D_Zheng</v>
+      <c r="C44" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="15" t="str">
+        <f>$I$4</f>
+        <v>_37_46_files_MT3D_Zheng</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="H44" s="26"/>
-      <c r="I44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="6"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="7"/>
+      <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -5268,8 +5338,8 @@
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
-      <c r="AF44" s="8" t="s">
-        <v>60</v>
+      <c r="AF44" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG44" s="1"/>
       <c r="AH44" s="1"/>
@@ -5293,26 +5363,26 @@
       <c r="AZ44" s="1"/>
     </row>
     <row r="45" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>www_37_46_files_MT3D_Zheng</v>
+      <c r="C45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="15" t="str">
+        <f>$I$4</f>
+        <v>_37_46_files_MT3D_Zheng</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="6"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="7"/>
+      <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -5332,8 +5402,8 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
-      <c r="AF45" s="8" t="s">
-        <v>60</v>
+      <c r="AF45" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
@@ -5357,26 +5427,26 @@
       <c r="AZ45" s="1"/>
     </row>
     <row r="46" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>www_37_46_files_MT3D_Zheng</v>
+      <c r="C46" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="15" t="str">
+        <f>$I$4</f>
+        <v>_37_46_files_MT3D_Zheng</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="6"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="7"/>
+      <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -5396,8 +5466,8 @@
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
-      <c r="AF46" s="8" t="s">
-        <v>60</v>
+      <c r="AF46" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG46" s="1"/>
       <c r="AH46" s="1"/>
@@ -5421,26 +5491,26 @@
       <c r="AZ46" s="1"/>
     </row>
     <row r="47" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D47" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>www_37_46_files_MT3D_Zheng</v>
+      <c r="C47" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="15" t="str">
+        <f>$I$4</f>
+        <v>_37_46_files_MT3D_Zheng</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="6"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="7"/>
+      <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -5460,8 +5530,8 @@
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
-      <c r="AF47" s="8" t="s">
-        <v>60</v>
+      <c r="AF47" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
@@ -5485,26 +5555,26 @@
       <c r="AZ47" s="1"/>
     </row>
     <row r="48" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>www_37_46_files_MT3D_Zheng</v>
+      <c r="C48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="15" t="str">
+        <f>$I$4</f>
+        <v>_37_46_files_MT3D_Zheng</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="I48" s="6"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="7"/>
+      <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -5524,8 +5594,8 @@
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
-      <c r="AF48" s="8" t="s">
-        <v>60</v>
+      <c r="AF48" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG48" s="1"/>
       <c r="AH48" s="1"/>
@@ -5549,26 +5619,26 @@
       <c r="AZ48" s="1"/>
     </row>
     <row r="49" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>www_37_46_files_MT3D_Zheng</v>
+      <c r="C49" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="15" t="str">
+        <f>$I$4</f>
+        <v>_37_46_files_MT3D_Zheng</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="I49" s="6"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="L49" s="7"/>
+      <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -5588,8 +5658,8 @@
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
-      <c r="AF49" s="8" t="s">
-        <v>60</v>
+      <c r="AF49" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG49" s="1"/>
       <c r="AH49" s="1"/>
@@ -5613,26 +5683,26 @@
       <c r="AZ49" s="1"/>
     </row>
     <row r="50" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>www_37_46_files_MT3D_Zheng</v>
+      <c r="C50" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="15" t="str">
+        <f>$I$4</f>
+        <v>_37_46_files_MT3D_Zheng</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="I50" s="6"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="7"/>
+      <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -5652,8 +5722,8 @@
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
-      <c r="AF50" s="8" t="s">
-        <v>60</v>
+      <c r="AF50" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG50" s="1"/>
       <c r="AH50" s="1"/>
@@ -5677,26 +5747,26 @@
       <c r="AZ50" s="1"/>
     </row>
     <row r="51" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>www_37_46_files_MT3D_Zheng</v>
+      <c r="C51" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="15" t="str">
+        <f>$I$4</f>
+        <v>_37_46_files_MT3D_Zheng</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="6"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-      <c r="L51" s="7"/>
+      <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -5716,8 +5786,8 @@
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
-      <c r="AF51" s="8" t="s">
-        <v>60</v>
+      <c r="AF51" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
@@ -5741,26 +5811,26 @@
       <c r="AZ51" s="1"/>
     </row>
     <row r="52" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>www_37_46_files_MT3D_Zheng</v>
+      <c r="C52" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="15" t="str">
+        <f>$I$4</f>
+        <v>_37_46_files_MT3D_Zheng</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="I52" s="6"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-      <c r="L52" s="7"/>
+      <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -5780,8 +5850,8 @@
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
-      <c r="AF52" s="8" t="s">
-        <v>60</v>
+      <c r="AF52" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG52" s="1"/>
       <c r="AH52" s="1"/>
@@ -5805,26 +5875,26 @@
       <c r="AZ52" s="1"/>
     </row>
     <row r="53" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>www_37_46_files_MT3D_Zheng</v>
+      <c r="C53" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="15" t="str">
+        <f>$I$4</f>
+        <v>_37_46_files_MT3D_Zheng</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
+      <c r="I53" s="6"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-      <c r="L53" s="7"/>
+      <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -5844,8 +5914,8 @@
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
-      <c r="AF53" s="8" t="s">
-        <v>60</v>
+      <c r="AF53" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
@@ -5869,26 +5939,26 @@
       <c r="AZ53" s="1"/>
     </row>
     <row r="54" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>www_37_46_files_MT3D_Zheng</v>
+      <c r="C54" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="15" t="str">
+        <f>$I$4</f>
+        <v>_37_46_files_MT3D_Zheng</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
+      <c r="I54" s="6"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="7"/>
+      <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -5908,8 +5978,8 @@
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
-      <c r="AF54" s="8" t="s">
-        <v>60</v>
+      <c r="AF54" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
@@ -5933,26 +6003,26 @@
       <c r="AZ54" s="1"/>
     </row>
     <row r="55" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>www_37_46_files_MT3D_Zheng</v>
+      <c r="C55" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="15" t="str">
+        <f>$I$4</f>
+        <v>_37_46_files_MT3D_Zheng</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
+      <c r="I55" s="6"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="7"/>
+      <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -5972,8 +6042,8 @@
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
-      <c r="AF55" s="8" t="s">
-        <v>60</v>
+      <c r="AF55" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
@@ -5997,26 +6067,26 @@
       <c r="AZ55" s="1"/>
     </row>
     <row r="56" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>www_37_46_files_MT3D_Zheng</v>
+      <c r="C56" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="15" t="str">
+        <f>$I$4</f>
+        <v>_37_46_files_MT3D_Zheng</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="I56" s="6"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-      <c r="L56" s="7"/>
+      <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -6036,8 +6106,8 @@
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
-      <c r="AF56" s="8" t="s">
-        <v>60</v>
+      <c r="AF56" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
@@ -6061,26 +6131,26 @@
       <c r="AZ56" s="1"/>
     </row>
     <row r="57" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>www_37_46_files_MT3D_Zheng</v>
+      <c r="C57" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="15" t="str">
+        <f>$I$4</f>
+        <v>_37_46_files_MT3D_Zheng</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="I57" s="6"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
-      <c r="L57" s="7"/>
+      <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -6100,8 +6170,8 @@
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
-      <c r="AF57" s="8" t="s">
-        <v>60</v>
+      <c r="AF57" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
@@ -6125,23 +6195,23 @@
       <c r="AZ57" s="1"/>
     </row>
     <row r="58" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="6">
+      <c r="C58" s="3"/>
+      <c r="D58" s="5">
         <v>47</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="I58" s="6"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
-      <c r="L58" s="7"/>
+      <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -6161,8 +6231,8 @@
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
-      <c r="AF58" s="8" t="s">
-        <v>60</v>
+      <c r="AF58" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG58" s="1"/>
       <c r="AH58" s="1"/>
@@ -6186,24 +6256,24 @@
       <c r="AZ58" s="1"/>
     </row>
     <row r="59" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="6">
-        <f t="shared" ref="D59:D81" si="3">D58+1</f>
+      <c r="C59" s="3"/>
+      <c r="D59" s="5">
+        <f t="shared" ref="D59:D81" si="2">D58+1</f>
         <v>48</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="I59" s="6"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
-      <c r="L59" s="7"/>
+      <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -6223,8 +6293,8 @@
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
-      <c r="AF59" s="8" t="s">
-        <v>60</v>
+      <c r="AF59" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG59" s="1"/>
       <c r="AH59" s="1"/>
@@ -6248,24 +6318,24 @@
       <c r="AZ59" s="1"/>
     </row>
     <row r="60" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="6">
-        <f t="shared" si="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="5">
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
+      <c r="I60" s="6"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-      <c r="L60" s="7"/>
+      <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -6285,8 +6355,8 @@
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
-      <c r="AF60" s="8" t="s">
-        <v>60</v>
+      <c r="AF60" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG60" s="1"/>
       <c r="AH60" s="1"/>
@@ -6310,24 +6380,24 @@
       <c r="AZ60" s="1"/>
     </row>
     <row r="61" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="6">
-        <f t="shared" si="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="5">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
+      <c r="I61" s="6"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-      <c r="L61" s="7"/>
+      <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -6347,8 +6417,8 @@
       <c r="AC61" s="1"/>
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
-      <c r="AF61" s="8" t="s">
-        <v>60</v>
+      <c r="AF61" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG61" s="1"/>
       <c r="AH61" s="1"/>
@@ -6372,26 +6442,26 @@
       <c r="AZ61" s="1"/>
     </row>
     <row r="62" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
+      <c r="A62" s="9">
         <v>1</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="9">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="6">
-        <f t="shared" si="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="5">
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
+      <c r="I62" s="6"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
-      <c r="L62" s="7"/>
+      <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
@@ -6411,8 +6481,8 @@
       <c r="AC62" s="1"/>
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
-      <c r="AF62" s="8" t="s">
-        <v>60</v>
+      <c r="AF62" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
@@ -6436,24 +6506,24 @@
       <c r="AZ62" s="1"/>
     </row>
     <row r="63" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="6">
-        <f t="shared" si="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="5">
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
+      <c r="I63" s="6"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
-      <c r="L63" s="7"/>
+      <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -6473,8 +6543,8 @@
       <c r="AC63" s="1"/>
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
-      <c r="AF63" s="8" t="s">
-        <v>60</v>
+      <c r="AF63" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG63" s="1"/>
       <c r="AH63" s="1"/>
@@ -6498,24 +6568,24 @@
       <c r="AZ63" s="1"/>
     </row>
     <row r="64" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="6">
-        <f t="shared" si="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="5">
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
+      <c r="I64" s="6"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
-      <c r="L64" s="7"/>
+      <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
@@ -6535,8 +6605,8 @@
       <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
-      <c r="AF64" s="8" t="s">
-        <v>60</v>
+      <c r="AF64" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG64" s="1"/>
       <c r="AH64" s="1"/>
@@ -6560,24 +6630,24 @@
       <c r="AZ64" s="1"/>
     </row>
     <row r="65" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="6">
-        <f t="shared" si="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="5">
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
+      <c r="I65" s="6"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
-      <c r="L65" s="7"/>
+      <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
@@ -6597,8 +6667,8 @@
       <c r="AC65" s="1"/>
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
-      <c r="AF65" s="8" t="s">
-        <v>60</v>
+      <c r="AF65" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
@@ -6622,24 +6692,24 @@
       <c r="AZ65" s="1"/>
     </row>
     <row r="66" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="6">
-        <f t="shared" si="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="5">
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
+      <c r="I66" s="6"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
-      <c r="L66" s="7"/>
+      <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
@@ -6659,8 +6729,8 @@
       <c r="AC66" s="1"/>
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
-      <c r="AF66" s="8" t="s">
-        <v>60</v>
+      <c r="AF66" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
@@ -6684,24 +6754,24 @@
       <c r="AZ66" s="1"/>
     </row>
     <row r="67" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="6">
-        <f t="shared" si="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="5">
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+      <c r="I67" s="6"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
-      <c r="L67" s="7"/>
+      <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -6721,8 +6791,8 @@
       <c r="AC67" s="1"/>
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
-      <c r="AF67" s="8" t="s">
-        <v>60</v>
+      <c r="AF67" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG67" s="1"/>
       <c r="AH67" s="1"/>
@@ -6746,24 +6816,24 @@
       <c r="AZ67" s="1"/>
     </row>
     <row r="68" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="6">
-        <f t="shared" si="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="5">
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
+      <c r="I68" s="6"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
-      <c r="L68" s="7"/>
+      <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -6783,8 +6853,8 @@
       <c r="AC68" s="1"/>
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
-      <c r="AF68" s="8" t="s">
-        <v>60</v>
+      <c r="AF68" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG68" s="1"/>
       <c r="AH68" s="1"/>
@@ -6808,24 +6878,24 @@
       <c r="AZ68" s="1"/>
     </row>
     <row r="69" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="6">
-        <f t="shared" si="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="5">
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
+      <c r="I69" s="6"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
-      <c r="L69" s="7"/>
+      <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -6845,8 +6915,8 @@
       <c r="AC69" s="1"/>
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
-      <c r="AF69" s="8" t="s">
-        <v>60</v>
+      <c r="AF69" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG69" s="1"/>
       <c r="AH69" s="1"/>
@@ -6870,24 +6940,24 @@
       <c r="AZ69" s="1"/>
     </row>
     <row r="70" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10">
-        <f t="shared" ref="B70:B81" si="4">B69+1</f>
+      <c r="A70" s="9"/>
+      <c r="B70" s="9">
+        <f t="shared" ref="B70:B81" si="3">B69+1</f>
         <v>66</v>
       </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="6">
-        <f t="shared" si="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="5">
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
+      <c r="I70" s="6"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
-      <c r="L70" s="7"/>
+      <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -6907,8 +6977,8 @@
       <c r="AC70" s="1"/>
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
-      <c r="AF70" s="8" t="s">
-        <v>60</v>
+      <c r="AF70" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG70" s="1"/>
       <c r="AH70" s="1"/>
@@ -6932,24 +7002,24 @@
       <c r="AZ70" s="1"/>
     </row>
     <row r="71" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10">
-        <f t="shared" si="4"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="9">
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="6">
-        <f t="shared" si="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="5">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
+      <c r="I71" s="6"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
-      <c r="L71" s="7"/>
+      <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
@@ -6969,8 +7039,8 @@
       <c r="AC71" s="1"/>
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
-      <c r="AF71" s="8" t="s">
-        <v>60</v>
+      <c r="AF71" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG71" s="1"/>
       <c r="AH71" s="1"/>
@@ -6994,24 +7064,24 @@
       <c r="AZ71" s="1"/>
     </row>
     <row r="72" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10">
-        <f t="shared" si="4"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="9">
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="6">
-        <f t="shared" si="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="5">
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
+      <c r="I72" s="6"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
-      <c r="L72" s="7"/>
+      <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
@@ -7031,8 +7101,8 @@
       <c r="AC72" s="1"/>
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
-      <c r="AF72" s="8" t="s">
-        <v>60</v>
+      <c r="AF72" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG72" s="1"/>
       <c r="AH72" s="1"/>
@@ -7056,24 +7126,24 @@
       <c r="AZ72" s="1"/>
     </row>
     <row r="73" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10">
-        <f t="shared" si="4"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="9">
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="6">
-        <f t="shared" si="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="5">
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
+      <c r="I73" s="6"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
-      <c r="L73" s="7"/>
+      <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -7093,8 +7163,8 @@
       <c r="AC73" s="1"/>
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
-      <c r="AF73" s="8" t="s">
-        <v>60</v>
+      <c r="AF73" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG73" s="1"/>
       <c r="AH73" s="1"/>
@@ -7118,24 +7188,24 @@
       <c r="AZ73" s="1"/>
     </row>
     <row r="74" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10">
-        <f t="shared" si="4"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="9">
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="6">
-        <f t="shared" si="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="5">
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
+      <c r="I74" s="6"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
-      <c r="L74" s="7"/>
+      <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
@@ -7155,8 +7225,8 @@
       <c r="AC74" s="1"/>
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
-      <c r="AF74" s="8" t="s">
-        <v>60</v>
+      <c r="AF74" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
@@ -7180,24 +7250,24 @@
       <c r="AZ74" s="1"/>
     </row>
     <row r="75" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10">
-        <f t="shared" si="4"/>
+      <c r="A75" s="9"/>
+      <c r="B75" s="9">
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="6">
-        <f t="shared" si="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="5">
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
+      <c r="I75" s="6"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
-      <c r="L75" s="7"/>
+      <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
@@ -7217,8 +7287,8 @@
       <c r="AC75" s="1"/>
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
-      <c r="AF75" s="8" t="s">
-        <v>60</v>
+      <c r="AF75" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
@@ -7242,24 +7312,24 @@
       <c r="AZ75" s="1"/>
     </row>
     <row r="76" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10">
-        <f t="shared" si="4"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="9">
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="6">
-        <f t="shared" si="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="5">
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
+      <c r="I76" s="6"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
-      <c r="L76" s="7"/>
+      <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
@@ -7279,8 +7349,8 @@
       <c r="AC76" s="1"/>
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
-      <c r="AF76" s="8" t="s">
-        <v>60</v>
+      <c r="AF76" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
@@ -7304,24 +7374,24 @@
       <c r="AZ76" s="1"/>
     </row>
     <row r="77" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10">
-        <f t="shared" si="4"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="9">
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="6">
-        <f t="shared" si="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="5">
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
+      <c r="I77" s="6"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
-      <c r="L77" s="7"/>
+      <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
@@ -7341,8 +7411,8 @@
       <c r="AC77" s="1"/>
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
-      <c r="AF77" s="8" t="s">
-        <v>60</v>
+      <c r="AF77" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
@@ -7366,24 +7436,24 @@
       <c r="AZ77" s="1"/>
     </row>
     <row r="78" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10">
-        <f t="shared" si="4"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="9">
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="6">
-        <f t="shared" si="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="5">
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
+      <c r="I78" s="6"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
-      <c r="L78" s="7"/>
+      <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
@@ -7403,8 +7473,8 @@
       <c r="AC78" s="1"/>
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
-      <c r="AF78" s="8" t="s">
-        <v>60</v>
+      <c r="AF78" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
@@ -7428,24 +7498,24 @@
       <c r="AZ78" s="1"/>
     </row>
     <row r="79" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10">
-        <f t="shared" si="4"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="9">
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="6">
-        <f t="shared" si="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="5">
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
+      <c r="I79" s="6"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
-      <c r="L79" s="7"/>
+      <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
@@ -7465,8 +7535,8 @@
       <c r="AC79" s="1"/>
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
-      <c r="AF79" s="8" t="s">
-        <v>60</v>
+      <c r="AF79" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG79" s="1"/>
       <c r="AH79" s="1"/>
@@ -7490,24 +7560,24 @@
       <c r="AZ79" s="1"/>
     </row>
     <row r="80" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10">
-        <f t="shared" si="4"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="9">
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="6">
-        <f t="shared" si="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="5">
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
+      <c r="I80" s="6"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
-      <c r="L80" s="7"/>
+      <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
@@ -7527,8 +7597,8 @@
       <c r="AC80" s="1"/>
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
-      <c r="AF80" s="8" t="s">
-        <v>60</v>
+      <c r="AF80" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
@@ -7552,24 +7622,24 @@
       <c r="AZ80" s="1"/>
     </row>
     <row r="81" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10">
-        <f t="shared" si="4"/>
+      <c r="A81" s="9"/>
+      <c r="B81" s="9">
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="6">
-        <f t="shared" si="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="5">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
+      <c r="I81" s="6"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
-      <c r="L81" s="7"/>
+      <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
@@ -7589,8 +7659,8 @@
       <c r="AC81" s="1"/>
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
-      <c r="AF81" s="8" t="s">
-        <v>60</v>
+      <c r="AF81" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG81" s="1"/>
       <c r="AH81" s="1"/>
@@ -7618,16 +7688,16 @@
         <v>1</v>
       </c>
       <c r="B82" s="1"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="6"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="5"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
+      <c r="I82" s="6"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
-      <c r="L82" s="7"/>
+      <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
@@ -7647,8 +7717,8 @@
       <c r="AC82" s="1"/>
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
-      <c r="AF82" s="8" t="s">
-        <v>60</v>
+      <c r="AF82" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG82" s="1"/>
       <c r="AH82" s="1"/>
@@ -7674,16 +7744,16 @@
     <row r="83" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="6"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="5"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
+      <c r="I83" s="6"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
-      <c r="L83" s="7"/>
+      <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
@@ -7703,8 +7773,8 @@
       <c r="AC83" s="1"/>
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
-      <c r="AF83" s="8" t="s">
-        <v>60</v>
+      <c r="AF83" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG83" s="1"/>
       <c r="AH83" s="1"/>
@@ -7730,16 +7800,16 @@
     <row r="84" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="6"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="5"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
+      <c r="I84" s="6"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
-      <c r="L84" s="7"/>
+      <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
@@ -7759,8 +7829,8 @@
       <c r="AC84" s="1"/>
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
-      <c r="AF84" s="8" t="s">
-        <v>60</v>
+      <c r="AF84" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG84" s="1"/>
       <c r="AH84" s="1"/>
@@ -7786,16 +7856,16 @@
     <row r="85" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="4"/>
+      <c r="C85" s="3"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
+      <c r="I85" s="6"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
-      <c r="L85" s="7"/>
+      <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
@@ -7815,8 +7885,8 @@
       <c r="AC85" s="1"/>
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
-      <c r="AF85" s="8" t="s">
-        <v>60</v>
+      <c r="AF85" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
@@ -7842,16 +7912,16 @@
     <row r="86" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="4"/>
+      <c r="C86" s="3"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
+      <c r="I86" s="6"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
-      <c r="L86" s="7"/>
+      <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
@@ -7871,8 +7941,8 @@
       <c r="AC86" s="1"/>
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
-      <c r="AF86" s="8" t="s">
-        <v>60</v>
+      <c r="AF86" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG86" s="1"/>
       <c r="AH86" s="1"/>
@@ -7898,16 +7968,16 @@
     <row r="87" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="4"/>
+      <c r="C87" s="3"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
+      <c r="I87" s="6"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
-      <c r="L87" s="7"/>
+      <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
@@ -7927,8 +7997,8 @@
       <c r="AC87" s="1"/>
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
-      <c r="AF87" s="8" t="s">
-        <v>60</v>
+      <c r="AF87" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG87" s="1"/>
       <c r="AH87" s="1"/>
@@ -7954,16 +8024,16 @@
     <row r="88" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="4"/>
+      <c r="C88" s="3"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
+      <c r="I88" s="6"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
-      <c r="L88" s="7"/>
+      <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
@@ -7983,8 +8053,8 @@
       <c r="AC88" s="1"/>
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
-      <c r="AF88" s="8" t="s">
-        <v>60</v>
+      <c r="AF88" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG88" s="1"/>
       <c r="AH88" s="1"/>
@@ -8010,16 +8080,16 @@
     <row r="89" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="4"/>
+      <c r="C89" s="3"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
+      <c r="I89" s="6"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
-      <c r="L89" s="7"/>
+      <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
@@ -8039,8 +8109,8 @@
       <c r="AC89" s="1"/>
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
-      <c r="AF89" s="8" t="s">
-        <v>60</v>
+      <c r="AF89" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG89" s="1"/>
       <c r="AH89" s="1"/>
@@ -8066,16 +8136,16 @@
     <row r="90" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="4"/>
+      <c r="C90" s="3"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
+      <c r="I90" s="6"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
-      <c r="L90" s="7"/>
+      <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
@@ -8095,8 +8165,8 @@
       <c r="AC90" s="1"/>
       <c r="AD90" s="1"/>
       <c r="AE90" s="1"/>
-      <c r="AF90" s="8" t="s">
-        <v>60</v>
+      <c r="AF90" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG90" s="1"/>
       <c r="AH90" s="1"/>
@@ -8122,16 +8192,16 @@
     <row r="91" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="4"/>
+      <c r="C91" s="3"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
+      <c r="I91" s="6"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
-      <c r="L91" s="7"/>
+      <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
@@ -8151,8 +8221,8 @@
       <c r="AC91" s="1"/>
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
-      <c r="AF91" s="8" t="s">
-        <v>60</v>
+      <c r="AF91" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG91" s="1"/>
       <c r="AH91" s="1"/>
@@ -8178,16 +8248,16 @@
     <row r="92" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="4"/>
+      <c r="C92" s="3"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
+      <c r="I92" s="6"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
-      <c r="L92" s="7"/>
+      <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
@@ -8207,8 +8277,8 @@
       <c r="AC92" s="1"/>
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
-      <c r="AF92" s="8" t="s">
-        <v>60</v>
+      <c r="AF92" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG92" s="1"/>
       <c r="AH92" s="1"/>
@@ -8234,16 +8304,16 @@
     <row r="93" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="4"/>
+      <c r="C93" s="3"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
+      <c r="I93" s="6"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
-      <c r="L93" s="7"/>
+      <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
@@ -8263,8 +8333,8 @@
       <c r="AC93" s="1"/>
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
-      <c r="AF93" s="8" t="s">
-        <v>60</v>
+      <c r="AF93" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG93" s="1"/>
       <c r="AH93" s="1"/>
@@ -8290,16 +8360,16 @@
     <row r="94" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="4"/>
+      <c r="C94" s="3"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
+      <c r="I94" s="6"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
-      <c r="L94" s="7"/>
+      <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
@@ -8319,8 +8389,8 @@
       <c r="AC94" s="1"/>
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
-      <c r="AF94" s="8" t="s">
-        <v>60</v>
+      <c r="AF94" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG94" s="1"/>
       <c r="AH94" s="1"/>
@@ -8346,16 +8416,16 @@
     <row r="95" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="4"/>
+      <c r="C95" s="3"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
+      <c r="I95" s="6"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
-      <c r="L95" s="7"/>
+      <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
@@ -8375,8 +8445,8 @@
       <c r="AC95" s="1"/>
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
-      <c r="AF95" s="8" t="s">
-        <v>60</v>
+      <c r="AF95" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG95" s="1"/>
       <c r="AH95" s="1"/>
@@ -8402,16 +8472,16 @@
     <row r="96" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="4"/>
+      <c r="C96" s="3"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
+      <c r="I96" s="6"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
-      <c r="L96" s="7"/>
+      <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
@@ -8431,8 +8501,8 @@
       <c r="AC96" s="1"/>
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
-      <c r="AF96" s="8" t="s">
-        <v>60</v>
+      <c r="AF96" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG96" s="1"/>
       <c r="AH96" s="1"/>
@@ -8458,16 +8528,16 @@
     <row r="97" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="4"/>
+      <c r="C97" s="3"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
+      <c r="I97" s="6"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
-      <c r="L97" s="7"/>
+      <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
@@ -8487,8 +8557,8 @@
       <c r="AC97" s="1"/>
       <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
-      <c r="AF97" s="8" t="s">
-        <v>60</v>
+      <c r="AF97" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG97" s="1"/>
       <c r="AH97" s="1"/>
@@ -8514,16 +8584,16 @@
     <row r="98" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
-      <c r="C98" s="4"/>
+      <c r="C98" s="3"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
+      <c r="I98" s="6"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
-      <c r="L98" s="7"/>
+      <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
@@ -8543,8 +8613,8 @@
       <c r="AC98" s="1"/>
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
-      <c r="AF98" s="8" t="s">
-        <v>60</v>
+      <c r="AF98" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG98" s="1"/>
       <c r="AH98" s="1"/>
@@ -8570,16 +8640,16 @@
     <row r="99" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
-      <c r="C99" s="4"/>
+      <c r="C99" s="3"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
+      <c r="I99" s="6"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
-      <c r="L99" s="7"/>
+      <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
@@ -8599,8 +8669,8 @@
       <c r="AC99" s="1"/>
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
-      <c r="AF99" s="8" t="s">
-        <v>60</v>
+      <c r="AF99" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG99" s="1"/>
       <c r="AH99" s="1"/>
@@ -8626,16 +8696,16 @@
     <row r="100" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
-      <c r="C100" s="4"/>
+      <c r="C100" s="3"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
+      <c r="I100" s="6"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
-      <c r="L100" s="7"/>
+      <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
@@ -8655,8 +8725,8 @@
       <c r="AC100" s="1"/>
       <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
-      <c r="AF100" s="8" t="s">
-        <v>60</v>
+      <c r="AF100" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG100" s="1"/>
       <c r="AH100" s="1"/>
@@ -8682,16 +8752,16 @@
     <row r="101" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
-      <c r="C101" s="4"/>
+      <c r="C101" s="3"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
+      <c r="I101" s="6"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
-      <c r="L101" s="7"/>
+      <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
@@ -8711,8 +8781,8 @@
       <c r="AC101" s="1"/>
       <c r="AD101" s="1"/>
       <c r="AE101" s="1"/>
-      <c r="AF101" s="8" t="s">
-        <v>60</v>
+      <c r="AF101" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG101" s="1"/>
       <c r="AH101" s="1"/>
@@ -8738,16 +8808,16 @@
     <row r="102" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
-      <c r="C102" s="4"/>
+      <c r="C102" s="3"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
+      <c r="I102" s="6"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
-      <c r="L102" s="7"/>
+      <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
@@ -8767,8 +8837,8 @@
       <c r="AC102" s="1"/>
       <c r="AD102" s="1"/>
       <c r="AE102" s="1"/>
-      <c r="AF102" s="8" t="s">
-        <v>60</v>
+      <c r="AF102" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG102" s="1"/>
       <c r="AH102" s="1"/>
@@ -8794,16 +8864,16 @@
     <row r="103" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
-      <c r="C103" s="4"/>
+      <c r="C103" s="3"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
+      <c r="I103" s="6"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
-      <c r="L103" s="7"/>
+      <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
@@ -8823,8 +8893,8 @@
       <c r="AC103" s="1"/>
       <c r="AD103" s="1"/>
       <c r="AE103" s="1"/>
-      <c r="AF103" s="8" t="s">
-        <v>60</v>
+      <c r="AF103" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG103" s="1"/>
       <c r="AH103" s="1"/>
@@ -8850,16 +8920,16 @@
     <row r="104" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
-      <c r="C104" s="4"/>
+      <c r="C104" s="3"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
+      <c r="I104" s="6"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
-      <c r="L104" s="7"/>
+      <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
@@ -8879,8 +8949,8 @@
       <c r="AC104" s="1"/>
       <c r="AD104" s="1"/>
       <c r="AE104" s="1"/>
-      <c r="AF104" s="8" t="s">
-        <v>60</v>
+      <c r="AF104" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG104" s="1"/>
       <c r="AH104" s="1"/>
@@ -8906,16 +8976,16 @@
     <row r="105" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
-      <c r="C105" s="4"/>
+      <c r="C105" s="3"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
+      <c r="I105" s="6"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
-      <c r="L105" s="7"/>
+      <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
@@ -8935,8 +9005,8 @@
       <c r="AC105" s="1"/>
       <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
-      <c r="AF105" s="8" t="s">
-        <v>60</v>
+      <c r="AF105" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG105" s="1"/>
       <c r="AH105" s="1"/>
@@ -8962,16 +9032,16 @@
     <row r="106" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
-      <c r="C106" s="4"/>
+      <c r="C106" s="3"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
+      <c r="I106" s="6"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
-      <c r="L106" s="7"/>
+      <c r="L106" s="1"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
@@ -8991,8 +9061,8 @@
       <c r="AC106" s="1"/>
       <c r="AD106" s="1"/>
       <c r="AE106" s="1"/>
-      <c r="AF106" s="8" t="s">
-        <v>60</v>
+      <c r="AF106" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG106" s="1"/>
       <c r="AH106" s="1"/>
@@ -9018,16 +9088,16 @@
     <row r="107" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
-      <c r="C107" s="4"/>
+      <c r="C107" s="3"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
+      <c r="I107" s="6"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
-      <c r="L107" s="7"/>
+      <c r="L107" s="1"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
@@ -9047,8 +9117,8 @@
       <c r="AC107" s="1"/>
       <c r="AD107" s="1"/>
       <c r="AE107" s="1"/>
-      <c r="AF107" s="8" t="s">
-        <v>60</v>
+      <c r="AF107" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG107" s="1"/>
       <c r="AH107" s="1"/>
@@ -9074,16 +9144,16 @@
     <row r="108" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
-      <c r="C108" s="4"/>
+      <c r="C108" s="3"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
+      <c r="I108" s="6"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
-      <c r="L108" s="7"/>
+      <c r="L108" s="1"/>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
@@ -9103,8 +9173,8 @@
       <c r="AC108" s="1"/>
       <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
-      <c r="AF108" s="8" t="s">
-        <v>60</v>
+      <c r="AF108" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG108" s="1"/>
       <c r="AH108" s="1"/>
@@ -9130,16 +9200,16 @@
     <row r="109" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
-      <c r="C109" s="4"/>
+      <c r="C109" s="3"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
+      <c r="I109" s="6"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
-      <c r="L109" s="7"/>
+      <c r="L109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
@@ -9159,8 +9229,8 @@
       <c r="AC109" s="1"/>
       <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
-      <c r="AF109" s="8" t="s">
-        <v>60</v>
+      <c r="AF109" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG109" s="1"/>
       <c r="AH109" s="1"/>
@@ -9186,16 +9256,16 @@
     <row r="110" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
-      <c r="C110" s="4"/>
+      <c r="C110" s="3"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
+      <c r="I110" s="6"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
-      <c r="L110" s="7"/>
+      <c r="L110" s="1"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
@@ -9215,8 +9285,8 @@
       <c r="AC110" s="1"/>
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
-      <c r="AF110" s="8" t="s">
-        <v>60</v>
+      <c r="AF110" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG110" s="1"/>
       <c r="AH110" s="1"/>
@@ -9242,16 +9312,16 @@
     <row r="111" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
-      <c r="C111" s="4"/>
+      <c r="C111" s="3"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
+      <c r="I111" s="6"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
-      <c r="L111" s="7"/>
+      <c r="L111" s="1"/>
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
@@ -9271,8 +9341,8 @@
       <c r="AC111" s="1"/>
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
-      <c r="AF111" s="8" t="s">
-        <v>60</v>
+      <c r="AF111" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG111" s="1"/>
       <c r="AH111" s="1"/>
@@ -9298,16 +9368,16 @@
     <row r="112" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
-      <c r="C112" s="4"/>
+      <c r="C112" s="3"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
+      <c r="I112" s="6"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
-      <c r="L112" s="7"/>
+      <c r="L112" s="1"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
@@ -9327,8 +9397,8 @@
       <c r="AC112" s="1"/>
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
-      <c r="AF112" s="8" t="s">
-        <v>60</v>
+      <c r="AF112" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG112" s="1"/>
       <c r="AH112" s="1"/>
@@ -9354,16 +9424,16 @@
     <row r="113" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
-      <c r="C113" s="4"/>
+      <c r="C113" s="3"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
+      <c r="I113" s="6"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
-      <c r="L113" s="7"/>
+      <c r="L113" s="1"/>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
@@ -9383,8 +9453,8 @@
       <c r="AC113" s="1"/>
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
-      <c r="AF113" s="8" t="s">
-        <v>60</v>
+      <c r="AF113" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG113" s="1"/>
       <c r="AH113" s="1"/>
@@ -9410,16 +9480,16 @@
     <row r="114" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
-      <c r="C114" s="4"/>
+      <c r="C114" s="3"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
+      <c r="I114" s="6"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
-      <c r="L114" s="7"/>
+      <c r="L114" s="1"/>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
@@ -9439,8 +9509,8 @@
       <c r="AC114" s="1"/>
       <c r="AD114" s="1"/>
       <c r="AE114" s="1"/>
-      <c r="AF114" s="8" t="s">
-        <v>60</v>
+      <c r="AF114" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG114" s="1"/>
       <c r="AH114" s="1"/>
@@ -9466,16 +9536,16 @@
     <row r="115" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
-      <c r="C115" s="4"/>
+      <c r="C115" s="3"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
+      <c r="I115" s="6"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
-      <c r="L115" s="7"/>
+      <c r="L115" s="1"/>
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
@@ -9495,8 +9565,8 @@
       <c r="AC115" s="1"/>
       <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
-      <c r="AF115" s="8" t="s">
-        <v>60</v>
+      <c r="AF115" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG115" s="1"/>
       <c r="AH115" s="1"/>
@@ -9522,16 +9592,16 @@
     <row r="116" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
-      <c r="C116" s="4"/>
+      <c r="C116" s="3"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
+      <c r="I116" s="6"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
-      <c r="L116" s="7"/>
+      <c r="L116" s="1"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
@@ -9551,8 +9621,8 @@
       <c r="AC116" s="1"/>
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
-      <c r="AF116" s="8" t="s">
-        <v>60</v>
+      <c r="AF116" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG116" s="1"/>
       <c r="AH116" s="1"/>
@@ -9578,16 +9648,16 @@
     <row r="117" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
-      <c r="C117" s="4"/>
+      <c r="C117" s="3"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
+      <c r="I117" s="6"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
-      <c r="L117" s="7"/>
+      <c r="L117" s="1"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
@@ -9607,8 +9677,8 @@
       <c r="AC117" s="1"/>
       <c r="AD117" s="1"/>
       <c r="AE117" s="1"/>
-      <c r="AF117" s="8" t="s">
-        <v>60</v>
+      <c r="AF117" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG117" s="1"/>
       <c r="AH117" s="1"/>
@@ -9634,16 +9704,16 @@
     <row r="118" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
-      <c r="C118" s="4"/>
+      <c r="C118" s="3"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
+      <c r="I118" s="6"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
-      <c r="L118" s="7"/>
+      <c r="L118" s="1"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
@@ -9663,8 +9733,8 @@
       <c r="AC118" s="1"/>
       <c r="AD118" s="1"/>
       <c r="AE118" s="1"/>
-      <c r="AF118" s="8" t="s">
-        <v>60</v>
+      <c r="AF118" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG118" s="1"/>
       <c r="AH118" s="1"/>
@@ -9690,16 +9760,16 @@
     <row r="119" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
-      <c r="C119" s="4"/>
+      <c r="C119" s="3"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
+      <c r="I119" s="6"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
-      <c r="L119" s="7"/>
+      <c r="L119" s="1"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
@@ -9719,8 +9789,8 @@
       <c r="AC119" s="1"/>
       <c r="AD119" s="1"/>
       <c r="AE119" s="1"/>
-      <c r="AF119" s="8" t="s">
-        <v>60</v>
+      <c r="AF119" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG119" s="1"/>
       <c r="AH119" s="1"/>
@@ -9746,16 +9816,16 @@
     <row r="120" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
-      <c r="C120" s="4"/>
+      <c r="C120" s="3"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
+      <c r="I120" s="6"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
-      <c r="L120" s="7"/>
+      <c r="L120" s="1"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
@@ -9775,8 +9845,8 @@
       <c r="AC120" s="1"/>
       <c r="AD120" s="1"/>
       <c r="AE120" s="1"/>
-      <c r="AF120" s="8" t="s">
-        <v>60</v>
+      <c r="AF120" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG120" s="1"/>
       <c r="AH120" s="1"/>
@@ -9802,16 +9872,16 @@
     <row r="121" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
-      <c r="C121" s="4"/>
+      <c r="C121" s="3"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
+      <c r="I121" s="6"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
-      <c r="L121" s="7"/>
+      <c r="L121" s="1"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
@@ -9831,8 +9901,8 @@
       <c r="AC121" s="1"/>
       <c r="AD121" s="1"/>
       <c r="AE121" s="1"/>
-      <c r="AF121" s="8" t="s">
-        <v>60</v>
+      <c r="AF121" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG121" s="1"/>
       <c r="AH121" s="1"/>
@@ -9858,16 +9928,16 @@
     <row r="122" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
-      <c r="C122" s="4"/>
+      <c r="C122" s="3"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
+      <c r="I122" s="6"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
-      <c r="L122" s="7"/>
+      <c r="L122" s="1"/>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
@@ -9887,8 +9957,8 @@
       <c r="AC122" s="1"/>
       <c r="AD122" s="1"/>
       <c r="AE122" s="1"/>
-      <c r="AF122" s="8" t="s">
-        <v>60</v>
+      <c r="AF122" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG122" s="1"/>
       <c r="AH122" s="1"/>
@@ -9914,16 +9984,16 @@
     <row r="123" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
-      <c r="C123" s="4"/>
+      <c r="C123" s="3"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
+      <c r="I123" s="6"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
-      <c r="L123" s="7"/>
+      <c r="L123" s="1"/>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
@@ -9943,8 +10013,8 @@
       <c r="AC123" s="1"/>
       <c r="AD123" s="1"/>
       <c r="AE123" s="1"/>
-      <c r="AF123" s="8" t="s">
-        <v>60</v>
+      <c r="AF123" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG123" s="1"/>
       <c r="AH123" s="1"/>
@@ -9970,16 +10040,16 @@
     <row r="124" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
-      <c r="C124" s="4"/>
+      <c r="C124" s="3"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
+      <c r="I124" s="6"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
-      <c r="L124" s="7"/>
+      <c r="L124" s="1"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
@@ -9999,8 +10069,8 @@
       <c r="AC124" s="1"/>
       <c r="AD124" s="1"/>
       <c r="AE124" s="1"/>
-      <c r="AF124" s="8" t="s">
-        <v>60</v>
+      <c r="AF124" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG124" s="1"/>
       <c r="AH124" s="1"/>
@@ -10026,16 +10096,16 @@
     <row r="125" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
-      <c r="C125" s="4"/>
+      <c r="C125" s="3"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
+      <c r="I125" s="6"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
-      <c r="L125" s="7"/>
+      <c r="L125" s="1"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
@@ -10055,8 +10125,8 @@
       <c r="AC125" s="1"/>
       <c r="AD125" s="1"/>
       <c r="AE125" s="1"/>
-      <c r="AF125" s="8" t="s">
-        <v>60</v>
+      <c r="AF125" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG125" s="1"/>
       <c r="AH125" s="1"/>
@@ -10082,16 +10152,16 @@
     <row r="126" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
-      <c r="C126" s="4"/>
+      <c r="C126" s="3"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
+      <c r="I126" s="6"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
-      <c r="L126" s="7"/>
+      <c r="L126" s="1"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
@@ -10111,8 +10181,8 @@
       <c r="AC126" s="1"/>
       <c r="AD126" s="1"/>
       <c r="AE126" s="1"/>
-      <c r="AF126" s="8" t="s">
-        <v>60</v>
+      <c r="AF126" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG126" s="1"/>
       <c r="AH126" s="1"/>
@@ -10138,16 +10208,16 @@
     <row r="127" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
-      <c r="C127" s="4"/>
+      <c r="C127" s="3"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
+      <c r="I127" s="6"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
-      <c r="L127" s="7"/>
+      <c r="L127" s="1"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
@@ -10167,8 +10237,8 @@
       <c r="AC127" s="1"/>
       <c r="AD127" s="1"/>
       <c r="AE127" s="1"/>
-      <c r="AF127" s="8" t="s">
-        <v>60</v>
+      <c r="AF127" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG127" s="1"/>
       <c r="AH127" s="1"/>
@@ -10194,16 +10264,16 @@
     <row r="128" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
-      <c r="C128" s="4"/>
+      <c r="C128" s="3"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
+      <c r="I128" s="6"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
-      <c r="L128" s="7"/>
+      <c r="L128" s="1"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
@@ -10223,8 +10293,8 @@
       <c r="AC128" s="1"/>
       <c r="AD128" s="1"/>
       <c r="AE128" s="1"/>
-      <c r="AF128" s="8" t="s">
-        <v>60</v>
+      <c r="AF128" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG128" s="1"/>
       <c r="AH128" s="1"/>
@@ -10250,16 +10320,16 @@
     <row r="129" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
-      <c r="C129" s="4"/>
+      <c r="C129" s="3"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
+      <c r="I129" s="6"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
-      <c r="L129" s="7"/>
+      <c r="L129" s="1"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
@@ -10279,8 +10349,8 @@
       <c r="AC129" s="1"/>
       <c r="AD129" s="1"/>
       <c r="AE129" s="1"/>
-      <c r="AF129" s="8" t="s">
-        <v>60</v>
+      <c r="AF129" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG129" s="1"/>
       <c r="AH129" s="1"/>
@@ -10306,16 +10376,16 @@
     <row r="130" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
-      <c r="C130" s="4"/>
+      <c r="C130" s="3"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
+      <c r="I130" s="6"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
-      <c r="L130" s="7"/>
+      <c r="L130" s="1"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
@@ -10335,8 +10405,8 @@
       <c r="AC130" s="1"/>
       <c r="AD130" s="1"/>
       <c r="AE130" s="1"/>
-      <c r="AF130" s="8" t="s">
-        <v>60</v>
+      <c r="AF130" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG130" s="1"/>
       <c r="AH130" s="1"/>
@@ -10362,16 +10432,16 @@
     <row r="131" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
-      <c r="C131" s="4"/>
+      <c r="C131" s="3"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
+      <c r="I131" s="6"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
-      <c r="L131" s="7"/>
+      <c r="L131" s="1"/>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
@@ -10391,8 +10461,8 @@
       <c r="AC131" s="1"/>
       <c r="AD131" s="1"/>
       <c r="AE131" s="1"/>
-      <c r="AF131" s="8" t="s">
-        <v>60</v>
+      <c r="AF131" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG131" s="1"/>
       <c r="AH131" s="1"/>
@@ -10418,16 +10488,16 @@
     <row r="132" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
-      <c r="C132" s="4"/>
+      <c r="C132" s="3"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
+      <c r="I132" s="6"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
-      <c r="L132" s="7"/>
+      <c r="L132" s="1"/>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
@@ -10447,8 +10517,8 @@
       <c r="AC132" s="1"/>
       <c r="AD132" s="1"/>
       <c r="AE132" s="1"/>
-      <c r="AF132" s="8" t="s">
-        <v>60</v>
+      <c r="AF132" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG132" s="1"/>
       <c r="AH132" s="1"/>
@@ -10474,16 +10544,16 @@
     <row r="133" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
-      <c r="C133" s="4"/>
+      <c r="C133" s="3"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
+      <c r="I133" s="6"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
-      <c r="L133" s="7"/>
+      <c r="L133" s="1"/>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
@@ -10503,8 +10573,8 @@
       <c r="AC133" s="1"/>
       <c r="AD133" s="1"/>
       <c r="AE133" s="1"/>
-      <c r="AF133" s="8" t="s">
-        <v>60</v>
+      <c r="AF133" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="AG133" s="1"/>
       <c r="AH133" s="1"/>
@@ -10530,16 +10600,16 @@
     <row r="134" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
-      <c r="C134" s="4"/>
+      <c r="C134" s="3"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
+      <c r="I134" s="6"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
-      <c r="L134" s="7"/>
+      <c r="L134" s="1"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
@@ -10584,16 +10654,16 @@
     <row r="135" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
-      <c r="C135" s="4"/>
+      <c r="C135" s="3"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
+      <c r="I135" s="6"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
-      <c r="L135" s="7"/>
+      <c r="L135" s="1"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
@@ -10638,16 +10708,16 @@
     <row r="136" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
-      <c r="C136" s="4"/>
+      <c r="C136" s="3"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
+      <c r="I136" s="6"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
-      <c r="L136" s="7"/>
+      <c r="L136" s="1"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
@@ -10692,16 +10762,16 @@
     <row r="137" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
-      <c r="C137" s="4"/>
+      <c r="C137" s="3"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
+      <c r="I137" s="6"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
-      <c r="L137" s="7"/>
+      <c r="L137" s="1"/>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
@@ -10746,16 +10816,16 @@
     <row r="138" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
-      <c r="C138" s="4"/>
+      <c r="C138" s="3"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
+      <c r="I138" s="6"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
-      <c r="L138" s="7"/>
+      <c r="L138" s="1"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
@@ -10800,16 +10870,16 @@
     <row r="139" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
-      <c r="C139" s="4"/>
+      <c r="C139" s="3"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
+      <c r="I139" s="6"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
-      <c r="L139" s="7"/>
+      <c r="L139" s="1"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
@@ -10854,16 +10924,16 @@
     <row r="140" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
-      <c r="C140" s="4"/>
+      <c r="C140" s="3"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
+      <c r="I140" s="6"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
-      <c r="L140" s="7"/>
+      <c r="L140" s="1"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
@@ -10908,16 +10978,16 @@
     <row r="141" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
-      <c r="C141" s="4"/>
+      <c r="C141" s="3"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
+      <c r="I141" s="6"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
-      <c r="L141" s="7"/>
+      <c r="L141" s="1"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
@@ -10962,16 +11032,16 @@
     <row r="142" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
-      <c r="C142" s="4"/>
+      <c r="C142" s="3"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
+      <c r="I142" s="6"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
-      <c r="L142" s="7"/>
+      <c r="L142" s="1"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
@@ -11016,16 +11086,16 @@
     <row r="143" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
-      <c r="C143" s="4"/>
+      <c r="C143" s="3"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
+      <c r="I143" s="6"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
-      <c r="L143" s="7"/>
+      <c r="L143" s="1"/>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
@@ -11070,16 +11140,16 @@
     <row r="144" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
-      <c r="C144" s="4"/>
+      <c r="C144" s="3"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
+      <c r="I144" s="6"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
-      <c r="L144" s="7"/>
+      <c r="L144" s="1"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
@@ -11124,16 +11194,16 @@
     <row r="145" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
-      <c r="C145" s="4"/>
+      <c r="C145" s="3"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
+      <c r="I145" s="6"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
-      <c r="L145" s="7"/>
+      <c r="L145" s="1"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
@@ -11178,16 +11248,16 @@
     <row r="146" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
-      <c r="C146" s="4"/>
+      <c r="C146" s="3"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
+      <c r="I146" s="6"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
-      <c r="L146" s="7"/>
+      <c r="L146" s="1"/>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
@@ -11232,17 +11302,15 @@
     <row r="147" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
-      <c r="C147" s="4"/>
+      <c r="C147" s="3"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
+      <c r="I147" s="6"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
-      <c r="L147" s="7"/>
-      <c r="M147" s="1"/>
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
@@ -11286,17 +11354,15 @@
     <row r="148" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
-      <c r="C148" s="4"/>
+      <c r="C148" s="3"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
+      <c r="I148" s="6"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
-      <c r="L148" s="7"/>
-      <c r="M148" s="1"/>
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
@@ -11340,17 +11406,15 @@
     <row r="149" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
-      <c r="C149" s="4"/>
+      <c r="C149" s="3"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
+      <c r="I149" s="6"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
-      <c r="L149" s="7"/>
-      <c r="M149" s="1"/>
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
@@ -11394,17 +11458,15 @@
     <row r="150" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
-      <c r="C150" s="4"/>
+      <c r="C150" s="3"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
+      <c r="I150" s="6"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
-      <c r="L150" s="7"/>
-      <c r="M150" s="1"/>
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
@@ -11448,17 +11510,15 @@
     <row r="151" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
-      <c r="C151" s="4"/>
+      <c r="C151" s="3"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
+      <c r="I151" s="6"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
-      <c r="L151" s="7"/>
-      <c r="M151" s="1"/>
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
@@ -11502,17 +11562,15 @@
     <row r="152" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
-      <c r="C152" s="4"/>
+      <c r="C152" s="3"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
+      <c r="I152" s="6"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
-      <c r="L152" s="7"/>
-      <c r="M152" s="1"/>
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
@@ -11556,17 +11614,15 @@
     <row r="153" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
-      <c r="C153" s="4"/>
+      <c r="C153" s="3"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
+      <c r="I153" s="6"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
-      <c r="L153" s="7"/>
-      <c r="M153" s="1"/>
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
@@ -11610,17 +11666,15 @@
     <row r="154" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
-      <c r="C154" s="4"/>
+      <c r="C154" s="3"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
-      <c r="I154" s="1"/>
+      <c r="I154" s="6"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
-      <c r="L154" s="7"/>
-      <c r="M154" s="1"/>
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
@@ -11664,17 +11718,15 @@
     <row r="155" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
-      <c r="C155" s="4"/>
+      <c r="C155" s="3"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
+      <c r="I155" s="6"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
-      <c r="L155" s="7"/>
-      <c r="M155" s="1"/>
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
@@ -11718,17 +11770,15 @@
     <row r="156" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
-      <c r="C156" s="4"/>
+      <c r="C156" s="3"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
+      <c r="I156" s="6"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
-      <c r="L156" s="7"/>
-      <c r="M156" s="1"/>
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
@@ -11772,17 +11822,15 @@
     <row r="157" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
-      <c r="C157" s="4"/>
+      <c r="C157" s="3"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
+      <c r="I157" s="6"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
-      <c r="L157" s="7"/>
-      <c r="M157" s="1"/>
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
@@ -11826,17 +11874,15 @@
     <row r="158" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
-      <c r="C158" s="4"/>
+      <c r="C158" s="3"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
+      <c r="I158" s="6"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
-      <c r="L158" s="7"/>
-      <c r="M158" s="1"/>
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
@@ -11880,17 +11926,15 @@
     <row r="159" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
-      <c r="C159" s="4"/>
+      <c r="C159" s="3"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
+      <c r="I159" s="6"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
-      <c r="L159" s="7"/>
-      <c r="M159" s="1"/>
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
@@ -11934,17 +11978,15 @@
     <row r="160" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
-      <c r="C160" s="4"/>
+      <c r="C160" s="3"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
+      <c r="I160" s="6"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
-      <c r="L160" s="7"/>
-      <c r="M160" s="1"/>
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
@@ -11988,17 +12030,15 @@
     <row r="161" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
-      <c r="C161" s="4"/>
+      <c r="C161" s="3"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
+      <c r="I161" s="6"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
-      <c r="L161" s="7"/>
-      <c r="M161" s="1"/>
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
@@ -12042,17 +12082,16 @@
     <row r="162" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
-      <c r="C162" s="4"/>
+      <c r="C162" s="3"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
       <c r="N162" s="1"/>
-      <c r="O162" s="1"/>
-      <c r="P162" s="1"/>
-      <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
@@ -12092,18 +12131,12 @@
     <row r="163" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
-      <c r="C163" s="4"/>
+      <c r="C163" s="3"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
+      <c r="K163" s="1"/>
       <c r="N163" s="1"/>
-      <c r="O163" s="1"/>
-      <c r="P163" s="1"/>
-      <c r="Q163" s="1"/>
-      <c r="R163" s="1"/>
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
       <c r="U163" s="1"/>
@@ -12139,6 +12172,11 @@
       <c r="AY163" s="1"/>
       <c r="AZ163" s="1"/>
     </row>
+    <row r="164" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="N164" s="1"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C5:C37">
     <cfRule type="colorScale" priority="10">
@@ -12164,19 +12202,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22:G30">
+  <conditionalFormatting sqref="L5:L13">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -12188,20 +12214,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K38">
+  <conditionalFormatting sqref="H6:H39">
     <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O19">
-    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12224,20 +12238,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="O4:O35">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
